--- a/SeparablePanel/output/redForecastPercentiles.xlsx
+++ b/SeparablePanel/output/redForecastPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="638" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="754" uniqueCount="58">
   <si>
     <t>Time</t>
   </si>
@@ -239,7 +239,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.42578125" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.42578125" customWidth="true"/>
@@ -255,7 +255,7 @@
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="13.42578125" customWidth="true"/>
-    <col min="18" max="18" width="13.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="13.42578125" customWidth="true"/>
     <col min="21" max="21" width="12.7109375" customWidth="true"/>
@@ -273,16 +273,16 @@
     <col min="33" max="33" width="17.140625" customWidth="true"/>
     <col min="34" max="34" width="17.140625" customWidth="true"/>
     <col min="35" max="35" width="15.28515625" customWidth="true"/>
-    <col min="36" max="36" width="16.42578125" customWidth="true"/>
+    <col min="36" max="36" width="15.42578125" customWidth="true"/>
     <col min="37" max="37" width="15.28515625" customWidth="true"/>
     <col min="38" max="38" width="15" customWidth="true"/>
-    <col min="39" max="39" width="15" customWidth="true"/>
+    <col min="39" max="39" width="15.42578125" customWidth="true"/>
     <col min="40" max="40" width="15" customWidth="true"/>
     <col min="41" max="41" width="17.140625" customWidth="true"/>
     <col min="42" max="42" width="17.140625" customWidth="true"/>
     <col min="43" max="43" width="17.140625" customWidth="true"/>
     <col min="44" max="44" width="15.28515625" customWidth="true"/>
-    <col min="45" max="45" width="15.42578125" customWidth="true"/>
+    <col min="45" max="45" width="15.28515625" customWidth="true"/>
     <col min="46" max="46" width="15.28515625" customWidth="true"/>
     <col min="47" max="47" width="15.140625" customWidth="true"/>
     <col min="48" max="48" width="15.140625" customWidth="true"/>
@@ -291,7 +291,7 @@
     <col min="51" max="51" width="17.28515625" customWidth="true"/>
     <col min="52" max="52" width="17.28515625" customWidth="true"/>
     <col min="53" max="53" width="15.42578125" customWidth="true"/>
-    <col min="54" max="54" width="15.7109375" customWidth="true"/>
+    <col min="54" max="54" width="15.42578125" customWidth="true"/>
     <col min="55" max="55" width="15.42578125" customWidth="true"/>
     <col min="56" max="56" width="5.7109375" customWidth="true"/>
     <col min="57" max="57" width="5.7109375" customWidth="true"/>
@@ -827,166 +827,166 @@
         <v>42005</v>
       </c>
       <c r="B5" s="0">
-        <v>1.3975871592317239</v>
+        <v>1.3802131890840679</v>
       </c>
       <c r="C5" s="0">
-        <v>2.4877326914277869</v>
+        <v>2.5455663043203391</v>
       </c>
       <c r="D5" s="0">
-        <v>3.7215697573222322</v>
+        <v>3.6620209523739282</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.38293049621609138</v>
+        <v>-0.4268805510738356</v>
       </c>
       <c r="F5" s="0">
-        <v>0.46414327403445543</v>
+        <v>0.501422885241251</v>
       </c>
       <c r="G5" s="0">
-        <v>1.3427777927971849</v>
+        <v>1.4127010273149216</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.69128775033829126</v>
+        <v>-0.72619257634153589</v>
       </c>
       <c r="I5" s="0">
-        <v>0.33907128885227689</v>
+        <v>0.31531130197705826</v>
       </c>
       <c r="J5" s="0">
-        <v>1.3673299010810003</v>
+        <v>1.3881228177207068</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.038008788192245624</v>
+        <v>-0.012337559943525533</v>
       </c>
       <c r="L5" s="0">
-        <v>1.0441322192031848</v>
+        <v>1.0280395681277517</v>
       </c>
       <c r="M5" s="0">
-        <v>2.10673293578001</v>
+        <v>2.0784431598227098</v>
       </c>
       <c r="N5" s="0">
-        <v>0.62813133705928226</v>
+        <v>0.65632584113094572</v>
       </c>
       <c r="O5" s="0">
-        <v>1.5674891085167939</v>
+        <v>1.5054482912189933</v>
       </c>
       <c r="P5" s="0">
-        <v>2.3765002187963153</v>
+        <v>2.3954868196436196</v>
       </c>
       <c r="Q5" s="0">
-        <v>-0.94410926685228924</v>
+        <v>-0.93378307782391934</v>
       </c>
       <c r="R5" s="0">
-        <v>0.088104315932947097</v>
+        <v>0.12528626559860043</v>
       </c>
       <c r="S5" s="0">
-        <v>1.0486046173728591</v>
+        <v>1.086839277664408</v>
       </c>
       <c r="T5" s="0">
-        <v>1.1774785241649157</v>
+        <v>1.1633826938291394</v>
       </c>
       <c r="U5" s="0">
-        <v>2.3191958570076228</v>
+        <v>2.2646252107888158</v>
       </c>
       <c r="V5" s="0">
-        <v>3.4026647725407306</v>
+        <v>3.3867871887025469</v>
       </c>
       <c r="W5" s="0">
-        <v>-0.13583611543940083</v>
+        <v>-0.18599545803524603</v>
       </c>
       <c r="X5" s="0">
-        <v>0.76859263588822457</v>
+        <v>0.70292771958072242</v>
       </c>
       <c r="Y5" s="0">
-        <v>1.6606190687607114</v>
+        <v>1.6249637978438418</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.31816457179535745</v>
+        <v>-0.25996769097777411</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.74039743308144457</v>
+        <v>0.70727740813721929</v>
       </c>
       <c r="AB5" s="0">
-        <v>1.7276734323082805</v>
+        <v>1.8032468414124088</v>
       </c>
       <c r="AC5" s="0">
-        <v>-1.0992453290168704</v>
+        <v>-1.1511635092190629</v>
       </c>
       <c r="AD5" s="0">
-        <v>-0.022936492319870418</v>
+        <v>0.032832611987346244</v>
       </c>
       <c r="AE5" s="0">
-        <v>1.176840694599282</v>
+        <v>1.1421320202838992</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.85623684445382775</v>
+        <v>-0.90742723118872226</v>
       </c>
       <c r="AG5" s="0">
-        <v>-0.010070069086498084</v>
+        <v>0.022035919939104573</v>
       </c>
       <c r="AH5" s="0">
-        <v>0.87497458857923593</v>
+        <v>0.94290400373339289</v>
       </c>
       <c r="AI5" s="0">
-        <v>-1.0336757087565109</v>
+        <v>-1.0571506992875037</v>
       </c>
       <c r="AJ5" s="0">
-        <v>-0.0036176181486096484</v>
+        <v>-0.011727165884074225</v>
       </c>
       <c r="AK5" s="0">
-        <v>1.0300291077891293</v>
+        <v>1.0453329564994673</v>
       </c>
       <c r="AL5" s="0">
-        <v>-1.0634259719867831</v>
+        <v>-1.0514170599737267</v>
       </c>
       <c r="AM5" s="0">
-        <v>0.0026330952832924895</v>
+        <v>-0.0060008942181561005</v>
       </c>
       <c r="AN5" s="0">
-        <v>1.0724965124869048</v>
+        <v>1.0518713825828589</v>
       </c>
       <c r="AO5" s="0">
-        <v>-0.91417912525297862</v>
+        <v>-0.85297422522755095</v>
       </c>
       <c r="AP5" s="0">
-        <v>0.018532298071164473</v>
+        <v>-0.0030303013598369632</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0.86202185269474318</v>
+        <v>0.89164956475448287</v>
       </c>
       <c r="AR5" s="0">
-        <v>-1.0645878460244185</v>
+        <v>-1.0223788754976524</v>
       </c>
       <c r="AS5" s="0">
-        <v>-0.0048009762291425871</v>
+        <v>0.036118075430226632</v>
       </c>
       <c r="AT5" s="0">
-        <v>0.95175266691874061</v>
+        <v>1.0134594992391297</v>
       </c>
       <c r="AU5" s="0">
-        <v>-1.127498958563365</v>
+        <v>-1.0962986156366759</v>
       </c>
       <c r="AV5" s="0">
-        <v>0.018265350849183189</v>
+        <v>-0.041129970410306249</v>
       </c>
       <c r="AW5" s="0">
-        <v>1.081579786134728</v>
+        <v>1.0971452838403071</v>
       </c>
       <c r="AX5" s="0">
-        <v>-0.86869689206533152</v>
+        <v>-0.91479837921898643</v>
       </c>
       <c r="AY5" s="0">
-        <v>0.038499808657069895</v>
+        <v>-0.017637103806815473</v>
       </c>
       <c r="AZ5" s="0">
-        <v>0.94229599446405599</v>
+        <v>0.86876665135852615</v>
       </c>
       <c r="BA5" s="0">
-        <v>-1.0322986236130007</v>
+        <v>-0.98851343673990544</v>
       </c>
       <c r="BB5" s="0">
-        <v>0.00052812941745307082</v>
+        <v>-0.0078908007309590397</v>
       </c>
       <c r="BC5" s="0">
-        <v>0.99747973760917419</v>
+        <v>1.0807456543299163</v>
       </c>
       <c r="BD5" s="0">
         <v>94.319999999999993</v>
@@ -1003,166 +1003,166 @@
         <v>42095</v>
       </c>
       <c r="B6" s="0">
-        <v>0.78028648783749777</v>
+        <v>0.77487737230575449</v>
       </c>
       <c r="C6" s="0">
-        <v>2.4490964378270603</v>
+        <v>2.426067690173725</v>
       </c>
       <c r="D6" s="0">
-        <v>4.0568450637191384</v>
+        <v>4.1046854126587631</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.91434344975848103</v>
+        <v>-0.91349948372929746</v>
       </c>
       <c r="F6" s="0">
-        <v>0.5358654004999156</v>
+        <v>0.59270435957449097</v>
       </c>
       <c r="G6" s="0">
-        <v>1.9653437877659106</v>
+        <v>2.0468012083922913</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.1376416665040308</v>
+        <v>-1.2978905243355383</v>
       </c>
       <c r="I6" s="0">
-        <v>0.44667716631324489</v>
+        <v>0.349999147137801</v>
       </c>
       <c r="J6" s="0">
-        <v>2.0129482864957016</v>
+        <v>1.9711629116027227</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.39376312059758645</v>
+        <v>-0.39575245334281672</v>
       </c>
       <c r="L6" s="0">
-        <v>1.2333340119601841</v>
+        <v>1.2035987354926694</v>
       </c>
       <c r="M6" s="0">
-        <v>2.645689651696427</v>
+        <v>2.7303996041088348</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.05159797099691571</v>
+        <v>0.11807528289777613</v>
       </c>
       <c r="O6" s="0">
-        <v>1.4273152919803536</v>
+        <v>1.5006939093512295</v>
       </c>
       <c r="P6" s="0">
-        <v>2.9745614733924857</v>
+        <v>2.8833382437322532</v>
       </c>
       <c r="Q6" s="0">
-        <v>-1.5356807587902424</v>
+        <v>-1.5207566727058901</v>
       </c>
       <c r="R6" s="0">
-        <v>0.12095330018973544</v>
+        <v>0.18919407067483468</v>
       </c>
       <c r="S6" s="0">
-        <v>1.7382904575046467</v>
+        <v>1.8081832306168888</v>
       </c>
       <c r="T6" s="0">
-        <v>0.34213287137020815</v>
+        <v>0.31922132919381596</v>
       </c>
       <c r="U6" s="0">
-        <v>2.0263993286542958</v>
+        <v>1.8916443157619511</v>
       </c>
       <c r="V6" s="0">
-        <v>3.6060570548417017</v>
+        <v>3.4908063037639883</v>
       </c>
       <c r="W6" s="0">
-        <v>-0.68559170081273935</v>
+        <v>-0.73791935487906701</v>
       </c>
       <c r="X6" s="0">
-        <v>0.6999284453166339</v>
+        <v>0.67453674290535393</v>
       </c>
       <c r="Y6" s="0">
-        <v>2.3383686409462285</v>
+        <v>2.1558322535795882</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.86811776615441616</v>
+        <v>-0.79901513057794915</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.76729963288318759</v>
+        <v>0.76520635182107155</v>
       </c>
       <c r="AB6" s="0">
-        <v>2.495841401797124</v>
+        <v>2.4087735096995102</v>
       </c>
       <c r="AC6" s="0">
-        <v>-1.1310138616326715</v>
+        <v>-1.0614072666037493</v>
       </c>
       <c r="AD6" s="0">
-        <v>0.014375461983784789</v>
+        <v>-0.011753447976942</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.1357227136357726</v>
+        <v>1.1440045989295136</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.91308963156587031</v>
+        <v>-0.92942485426573285</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.0039374705471498569</v>
+        <v>0.0044498874713572462</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.86633119219349863</v>
+        <v>0.93864819392967058</v>
       </c>
       <c r="AI6" s="0">
-        <v>-1.0150821519831492</v>
+        <v>-1.058795645650453</v>
       </c>
       <c r="AJ6" s="0">
-        <v>-0.00093661464388837198</v>
+        <v>-0.055906346312730837</v>
       </c>
       <c r="AK6" s="0">
-        <v>1.0083302529465619</v>
+        <v>0.99798560827181348</v>
       </c>
       <c r="AL6" s="0">
-        <v>-1.088395672118939</v>
+        <v>-1.0818895166216338</v>
       </c>
       <c r="AM6" s="0">
-        <v>0.037556844084832439</v>
+        <v>-0.012439677886666695</v>
       </c>
       <c r="AN6" s="0">
-        <v>1.076268168073339</v>
+        <v>1.1776833366643145</v>
       </c>
       <c r="AO6" s="0">
-        <v>-0.9561665660993337</v>
+        <v>-0.85796958258118872</v>
       </c>
       <c r="AP6" s="0">
-        <v>-0.014253969378795108</v>
+        <v>0.029635039032510919</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0.91634680455685924</v>
+        <v>0.8925856202753536</v>
       </c>
       <c r="AR6" s="0">
-        <v>-1.0243613358742336</v>
+        <v>-1.0287318362750537</v>
       </c>
       <c r="AS6" s="0">
-        <v>-0.032393095451133565</v>
+        <v>-0.031685350301117909</v>
       </c>
       <c r="AT6" s="0">
-        <v>1.0718664676979304</v>
+        <v>1.0135915984636583</v>
       </c>
       <c r="AU6" s="0">
-        <v>-1.1616431387193211</v>
+        <v>-1.1064201213035743</v>
       </c>
       <c r="AV6" s="0">
-        <v>0.021342949348364545</v>
+        <v>-0.070500849457870496</v>
       </c>
       <c r="AW6" s="0">
-        <v>1.1353216181836947</v>
+        <v>0.99178297640171076</v>
       </c>
       <c r="AX6" s="0">
-        <v>-0.92388724819894263</v>
+        <v>-0.91172622405458636</v>
       </c>
       <c r="AY6" s="0">
-        <v>-0.024977824964710668</v>
+        <v>-0.017528196124861142</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0.87056728743194245</v>
+        <v>0.90545138914335777</v>
       </c>
       <c r="BA6" s="0">
-        <v>-1.0527398829602306</v>
+        <v>-1.0609955826183095</v>
       </c>
       <c r="BB6" s="0">
-        <v>-0.035551480233714398</v>
+        <v>-0.060238859896857247</v>
       </c>
       <c r="BC6" s="0">
-        <v>0.9625303387573263</v>
+        <v>0.95249514348381048</v>
       </c>
       <c r="BD6" s="0">
         <v>94.319999999999993</v>
@@ -1179,166 +1179,166 @@
         <v>42186</v>
       </c>
       <c r="B7" s="0">
-        <v>0.072065996232636695</v>
+        <v>-0.032684769997065599</v>
       </c>
       <c r="C7" s="0">
-        <v>2.00567087177334</v>
+        <v>2.0140641823584797</v>
       </c>
       <c r="D7" s="0">
-        <v>3.9164588032219276</v>
+        <v>3.8480012280757765</v>
       </c>
       <c r="E7" s="0">
-        <v>-1.2610729442555795</v>
+        <v>-1.3293006089820207</v>
       </c>
       <c r="F7" s="0">
-        <v>0.62268374398877258</v>
+        <v>0.56445411235051113</v>
       </c>
       <c r="G7" s="0">
-        <v>2.393571523103402</v>
+        <v>2.4205795943728114</v>
       </c>
       <c r="H7" s="0">
-        <v>-1.5015848579630076</v>
+        <v>-1.6615138594928329</v>
       </c>
       <c r="I7" s="0">
-        <v>0.52301131785801247</v>
+        <v>0.42908052110463685</v>
       </c>
       <c r="J7" s="0">
-        <v>2.435846985992665</v>
+        <v>2.4886229221287879</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.50690689285444845</v>
+        <v>-0.55094891786223377</v>
       </c>
       <c r="L7" s="0">
-        <v>1.4041607679721562</v>
+        <v>1.3709771379898119</v>
       </c>
       <c r="M7" s="0">
-        <v>3.2039145745177056</v>
+        <v>3.1220921760301499</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.58114821726010879</v>
+        <v>-0.39556692540242822</v>
       </c>
       <c r="O7" s="0">
-        <v>1.357598263149224</v>
+        <v>1.3478490175729001</v>
       </c>
       <c r="P7" s="0">
-        <v>3.30196155974562</v>
+        <v>3.241548793274057</v>
       </c>
       <c r="Q7" s="0">
-        <v>-1.9258481266647318</v>
+        <v>-1.8454537761773939</v>
       </c>
       <c r="R7" s="0">
-        <v>0.17592671870678958</v>
+        <v>0.26982968608833702</v>
       </c>
       <c r="S7" s="0">
-        <v>2.1494439563666088</v>
+        <v>2.3897122505190325</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.39720463112030796</v>
+        <v>-0.58195092988440855</v>
       </c>
       <c r="U7" s="0">
-        <v>1.5740438633431069</v>
+        <v>1.4718342499751804</v>
       </c>
       <c r="V7" s="0">
-        <v>3.4359855535390347</v>
+        <v>3.3889118865094483</v>
       </c>
       <c r="W7" s="0">
-        <v>-1.1462711928179559</v>
+        <v>-1.1286060579586588</v>
       </c>
       <c r="X7" s="0">
-        <v>0.76395315325272606</v>
+        <v>0.71612950788560359</v>
       </c>
       <c r="Y7" s="0">
-        <v>2.8303703112342093</v>
+        <v>2.5244728998698975</v>
       </c>
       <c r="Z7" s="0">
-        <v>-1.1701395949727333</v>
+        <v>-1.1863303169416692</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.8201716246684233</v>
+        <v>0.86246923269343245</v>
       </c>
       <c r="AB7" s="0">
-        <v>2.8783333296704665</v>
+        <v>2.8414340919244889</v>
       </c>
       <c r="AC7" s="0">
-        <v>-1.1563399263904599</v>
+        <v>-1.127866103832218</v>
       </c>
       <c r="AD7" s="0">
-        <v>-0.053203810876764859</v>
+        <v>0.028064721847383546</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.0505930619840669</v>
+        <v>1.1434698593634858</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.87665177881851397</v>
+        <v>-0.90079325030030799</v>
       </c>
       <c r="AG7" s="0">
-        <v>0.022185516152128791</v>
+        <v>-0.021650799037254954</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.84716354817043737</v>
+        <v>0.82784630105263513</v>
       </c>
       <c r="AI7" s="0">
-        <v>-1.0047333251087653</v>
+        <v>-0.95828202150483166</v>
       </c>
       <c r="AJ7" s="0">
-        <v>-0.025998821434525032</v>
+        <v>-0.020270324892587399</v>
       </c>
       <c r="AK7" s="0">
-        <v>1.0272434923139659</v>
+        <v>1.0528051847177085</v>
       </c>
       <c r="AL7" s="0">
-        <v>-1.0627039310279933</v>
+        <v>-1.071146206782247</v>
       </c>
       <c r="AM7" s="0">
-        <v>0.013631616187134101</v>
+        <v>-0.033808655548014918</v>
       </c>
       <c r="AN7" s="0">
-        <v>1.1868449449593146</v>
+        <v>1.0997076491603406</v>
       </c>
       <c r="AO7" s="0">
-        <v>-0.91883326842300339</v>
+        <v>-0.93065497775047401</v>
       </c>
       <c r="AP7" s="0">
-        <v>-0.044833989934800401</v>
+        <v>0.0060069994386284589</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.82099186671514346</v>
+        <v>0.84246474577351804</v>
       </c>
       <c r="AR7" s="0">
-        <v>-1.0492515690324467</v>
+        <v>-1.0380210288016694</v>
       </c>
       <c r="AS7" s="0">
-        <v>-0.0010875819661696866</v>
+        <v>-0.044554711938982569</v>
       </c>
       <c r="AT7" s="0">
-        <v>0.98438969830388456</v>
+        <v>1.0283669153549149</v>
       </c>
       <c r="AU7" s="0">
-        <v>-1.0546371007558393</v>
+        <v>-1.1967742817841591</v>
       </c>
       <c r="AV7" s="0">
-        <v>0.0046602840988464803</v>
+        <v>-0.039959468698005388</v>
       </c>
       <c r="AW7" s="0">
-        <v>0.98090780433653957</v>
+        <v>1.0952872236806717</v>
       </c>
       <c r="AX7" s="0">
-        <v>-0.84019004649868978</v>
+        <v>-0.86471328309361528</v>
       </c>
       <c r="AY7" s="0">
-        <v>0.0067134155561541075</v>
+        <v>0.030296265217768549</v>
       </c>
       <c r="AZ7" s="0">
-        <v>0.95515294568803422</v>
+        <v>0.86659548345715165</v>
       </c>
       <c r="BA7" s="0">
-        <v>-1.01963071407871</v>
+        <v>-0.99436445339107438</v>
       </c>
       <c r="BB7" s="0">
-        <v>0.017000878013311661</v>
+        <v>0.0064591463217975945</v>
       </c>
       <c r="BC7" s="0">
-        <v>1.0150429935821588</v>
+        <v>1.0445607497601297</v>
       </c>
       <c r="BD7" s="0">
         <v>94.319999999999993</v>
@@ -1355,166 +1355,166 @@
         <v>42278</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.53223673873883037</v>
+        <v>-0.56771826349318777</v>
       </c>
       <c r="C8" s="0">
-        <v>1.6573229679750714</v>
+        <v>1.582979370322267</v>
       </c>
       <c r="D8" s="0">
-        <v>3.7875437582894644</v>
+        <v>3.6479887611651582</v>
       </c>
       <c r="E8" s="0">
-        <v>-1.4126834409597686</v>
+        <v>-1.4871255266098458</v>
       </c>
       <c r="F8" s="0">
-        <v>0.50987316773379932</v>
+        <v>0.48994467794100172</v>
       </c>
       <c r="G8" s="0">
-        <v>2.6758495839038394</v>
+        <v>2.7389562859329333</v>
       </c>
       <c r="H8" s="0">
-        <v>-1.7513850117760665</v>
+        <v>-1.9508788485325459</v>
       </c>
       <c r="I8" s="0">
-        <v>0.55383231066464245</v>
+        <v>0.49128489357792476</v>
       </c>
       <c r="J8" s="0">
-        <v>2.8897671395754472</v>
+        <v>2.8370788204482515</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.45112083332949493</v>
+        <v>-0.49759510416876679</v>
       </c>
       <c r="L8" s="0">
-        <v>1.5292139030983294</v>
+        <v>1.4724872492219965</v>
       </c>
       <c r="M8" s="0">
-        <v>3.4293901851268935</v>
+        <v>3.3065079817543381</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.94297131322765759</v>
+        <v>-0.73310582012267034</v>
       </c>
       <c r="O8" s="0">
-        <v>1.2358707911257247</v>
+        <v>1.2564949741016311</v>
       </c>
       <c r="P8" s="0">
-        <v>3.5094758411267142</v>
+        <v>3.3893649960845948</v>
       </c>
       <c r="Q8" s="0">
-        <v>-2.2461462486767809</v>
+        <v>-2.1101866174753376</v>
       </c>
       <c r="R8" s="0">
-        <v>0.2891425667422769</v>
+        <v>0.29875950414383806</v>
       </c>
       <c r="S8" s="0">
-        <v>2.7495464512982983</v>
+        <v>2.6916688637540052</v>
       </c>
       <c r="T8" s="0">
-        <v>-0.82028584540459293</v>
+        <v>-0.98252006325814945</v>
       </c>
       <c r="U8" s="0">
-        <v>1.235881168597992</v>
+        <v>1.1736688048198571</v>
       </c>
       <c r="V8" s="0">
-        <v>3.1263299805337592</v>
+        <v>3.2410923536365521</v>
       </c>
       <c r="W8" s="0">
-        <v>-1.3420878240689449</v>
+        <v>-1.4473843225516709</v>
       </c>
       <c r="X8" s="0">
-        <v>0.70846094551491068</v>
+        <v>0.66919159366337877</v>
       </c>
       <c r="Y8" s="0">
-        <v>2.9755347748979144</v>
+        <v>2.9105196239015489</v>
       </c>
       <c r="Z8" s="0">
-        <v>-1.5256879347071122</v>
+        <v>-1.5176066494672042</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.87570940308506295</v>
+        <v>0.90159677750850697</v>
       </c>
       <c r="AB8" s="0">
-        <v>3.1640188018101489</v>
+        <v>3.1980479229564143</v>
       </c>
       <c r="AC8" s="0">
-        <v>-1.0932217937359368</v>
+        <v>-1.0665084034692618</v>
       </c>
       <c r="AD8" s="0">
-        <v>0.068236853017303131</v>
+        <v>-0.043567868069597997</v>
       </c>
       <c r="AE8" s="0">
-        <v>1.2187299086023469</v>
+        <v>1.117375018518155</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.93141464480437519</v>
+        <v>-0.87180688727097833</v>
       </c>
       <c r="AG8" s="0">
-        <v>-0.026653196275846454</v>
+        <v>0.030373110687036319</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.90377233489007347</v>
+        <v>0.91007999720083277</v>
       </c>
       <c r="AI8" s="0">
-        <v>-1.0456556196377833</v>
+        <v>-0.94671612299974806</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0.036800815819453492</v>
+        <v>0.010543701281644729</v>
       </c>
       <c r="AK8" s="0">
-        <v>1.0962748486317373</v>
+        <v>1.0692405424549025</v>
       </c>
       <c r="AL8" s="0">
-        <v>-1.0426565424038925</v>
+        <v>-0.98511801479564531</v>
       </c>
       <c r="AM8" s="0">
-        <v>0.0026470474031532031</v>
+        <v>-0.0088631069400935819</v>
       </c>
       <c r="AN8" s="0">
-        <v>1.0850196036493478</v>
+        <v>1.136434214525206</v>
       </c>
       <c r="AO8" s="0">
-        <v>-0.89137185219881943</v>
+        <v>-0.96524879117854012</v>
       </c>
       <c r="AP8" s="0">
-        <v>0.0022214333000408724</v>
+        <v>-0.038648423580474052</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.84715312948027832</v>
+        <v>0.83248439561804766</v>
       </c>
       <c r="AR8" s="0">
-        <v>-0.96802606645271916</v>
+        <v>-1.0972779079732571</v>
       </c>
       <c r="AS8" s="0">
-        <v>0.0031436683280261519</v>
+        <v>-0.045690945071332603</v>
       </c>
       <c r="AT8" s="0">
-        <v>1.0500646221113095</v>
+        <v>0.99769368100247702</v>
       </c>
       <c r="AU8" s="0">
-        <v>-1.0618735397775527</v>
+        <v>-1.0026825107659891</v>
       </c>
       <c r="AV8" s="0">
-        <v>0.020232276459463329</v>
+        <v>0.019597241814091684</v>
       </c>
       <c r="AW8" s="0">
-        <v>1.187293211542245</v>
+        <v>1.1704973007760335</v>
       </c>
       <c r="AX8" s="0">
-        <v>-0.90919262777841525</v>
+        <v>-0.8786533813673173</v>
       </c>
       <c r="AY8" s="0">
-        <v>-0.0045307388882091888</v>
+        <v>0.022783345150614226</v>
       </c>
       <c r="AZ8" s="0">
-        <v>0.85535090367033173</v>
+        <v>0.91348100929202458</v>
       </c>
       <c r="BA8" s="0">
-        <v>-0.95212319252324984</v>
+        <v>-0.99353280248753761</v>
       </c>
       <c r="BB8" s="0">
-        <v>-0.0055141255252249416</v>
+        <v>0.023857462396822404</v>
       </c>
       <c r="BC8" s="0">
-        <v>1.0338036713526459</v>
+        <v>1.0552777315098441</v>
       </c>
       <c r="BD8" s="0">
         <v>94.319999999999993</v>
@@ -1531,166 +1531,166 @@
         <v>42370</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.94817990201458358</v>
+        <v>-0.94182964971142202</v>
       </c>
       <c r="C9" s="0">
-        <v>1.2080603206709681</v>
+        <v>1.2985354425025499</v>
       </c>
       <c r="D9" s="0">
-        <v>3.2898090423248592</v>
+        <v>3.4193725621459894</v>
       </c>
       <c r="E9" s="0">
-        <v>-1.8266660822364698</v>
+        <v>-1.639717806947929</v>
       </c>
       <c r="F9" s="0">
-        <v>0.47623284938760435</v>
+        <v>0.54754317042911493</v>
       </c>
       <c r="G9" s="0">
-        <v>3.0673477678514862</v>
+        <v>2.9284161839076841</v>
       </c>
       <c r="H9" s="0">
-        <v>-2.2689499795774273</v>
+        <v>-2.1646629884389776</v>
       </c>
       <c r="I9" s="0">
-        <v>0.56581105518288255</v>
+        <v>0.4736604651036555</v>
       </c>
       <c r="J9" s="0">
-        <v>3.198128568300187</v>
+        <v>2.9055957784303539</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.40922748417445542</v>
+        <v>-0.6063131378338662</v>
       </c>
       <c r="L9" s="0">
-        <v>1.5650977312433489</v>
+        <v>1.5278452079765263</v>
       </c>
       <c r="M9" s="0">
-        <v>3.6151369098863326</v>
+        <v>3.546953581246691</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.97652046660634739</v>
+        <v>-1.0866872749813086</v>
       </c>
       <c r="O9" s="0">
-        <v>1.1869312163068084</v>
+        <v>1.25564378214739</v>
       </c>
       <c r="P9" s="0">
-        <v>3.7612324086776305</v>
+        <v>3.5414037365728905</v>
       </c>
       <c r="Q9" s="0">
-        <v>-2.4651175820761262</v>
+        <v>-2.2191129334936175</v>
       </c>
       <c r="R9" s="0">
-        <v>0.50638472065704576</v>
+        <v>0.37394967371330057</v>
       </c>
       <c r="S9" s="0">
-        <v>3.0983258231783557</v>
+        <v>2.9997352790346987</v>
       </c>
       <c r="T9" s="0">
-        <v>-1.0649932981632106</v>
+        <v>-1.1111311039844112</v>
       </c>
       <c r="U9" s="0">
-        <v>1.0146623874516791</v>
+        <v>1.0022671165254784</v>
       </c>
       <c r="V9" s="0">
-        <v>3.1193444624238147</v>
+        <v>3.0942244955775258</v>
       </c>
       <c r="W9" s="0">
-        <v>-1.5678820423718838</v>
+        <v>-1.6460205568548361</v>
       </c>
       <c r="X9" s="0">
-        <v>0.72025549435439773</v>
+        <v>0.69438733169778788</v>
       </c>
       <c r="Y9" s="0">
-        <v>3.1412093404761228</v>
+        <v>3.1285132248483638</v>
       </c>
       <c r="Z9" s="0">
-        <v>-1.8455855399271095</v>
+        <v>-1.7318595360265814</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.74639766084217118</v>
+        <v>0.83469355734153139</v>
       </c>
       <c r="AB9" s="0">
-        <v>3.3616341303325674</v>
+        <v>3.5267079323274202</v>
       </c>
       <c r="AC9" s="0">
-        <v>-1.1334075910141239</v>
+        <v>-1.16292546797122</v>
       </c>
       <c r="AD9" s="0">
-        <v>-0.062349918217271268</v>
+        <v>0.021400276622209086</v>
       </c>
       <c r="AE9" s="0">
-        <v>1.0496475648516777</v>
+        <v>1.1592897410875422</v>
       </c>
       <c r="AF9" s="0">
-        <v>-0.88837358788553322</v>
+        <v>-0.85429916045761212</v>
       </c>
       <c r="AG9" s="0">
-        <v>-0.01508440264139267</v>
+        <v>0.033493822166279656</v>
       </c>
       <c r="AH9" s="0">
-        <v>0.86262227036732608</v>
+        <v>0.88960658934972836</v>
       </c>
       <c r="AI9" s="0">
-        <v>-1.0938056432985244</v>
+        <v>-1.0715867077555652</v>
       </c>
       <c r="AJ9" s="0">
-        <v>-0.0050268088640262332</v>
+        <v>0.050468056296126454</v>
       </c>
       <c r="AK9" s="0">
-        <v>0.99616854144412326</v>
+        <v>1.0776518390918037</v>
       </c>
       <c r="AL9" s="0">
-        <v>-1.0907365026110158</v>
+        <v>-1.1729460898175983</v>
       </c>
       <c r="AM9" s="0">
-        <v>0.016146338103484925</v>
+        <v>-0.0046678994909213605</v>
       </c>
       <c r="AN9" s="0">
-        <v>1.2142782624430566</v>
+        <v>1.146183807190537</v>
       </c>
       <c r="AO9" s="0">
-        <v>-0.88616678137763194</v>
+        <v>-0.86606815869440434</v>
       </c>
       <c r="AP9" s="0">
-        <v>0.04436466258150748</v>
+        <v>0.071237997297741329</v>
       </c>
       <c r="AQ9" s="0">
-        <v>0.91564294748243147</v>
+        <v>0.90844211991749702</v>
       </c>
       <c r="AR9" s="0">
-        <v>-1.007789249469301</v>
+        <v>-0.90339677415326947</v>
       </c>
       <c r="AS9" s="0">
-        <v>0.056401745596284851</v>
+        <v>0.084914541318024353</v>
       </c>
       <c r="AT9" s="0">
-        <v>1.0947457743138036</v>
+        <v>1.0410562045391778</v>
       </c>
       <c r="AU9" s="0">
-        <v>-1.1237659408346303</v>
+        <v>-1.0923873597733764</v>
       </c>
       <c r="AV9" s="0">
-        <v>-0.021077536791041407</v>
+        <v>0.052597046785040985</v>
       </c>
       <c r="AW9" s="0">
-        <v>1.028372633614193</v>
+        <v>1.1576608779079591</v>
       </c>
       <c r="AX9" s="0">
-        <v>-0.91847580272957663</v>
+        <v>-0.92376214708037396</v>
       </c>
       <c r="AY9" s="0">
-        <v>-0.0006982519530836246</v>
+        <v>-0.044214941906250221</v>
       </c>
       <c r="AZ9" s="0">
-        <v>0.82890851190339498</v>
+        <v>0.85694249687123247</v>
       </c>
       <c r="BA9" s="0">
-        <v>-1.0505452088402953</v>
+        <v>-1.0250065946071998</v>
       </c>
       <c r="BB9" s="0">
-        <v>-0.060119133150859004</v>
+        <v>-0.0055435616983975176</v>
       </c>
       <c r="BC9" s="0">
-        <v>1.0457292691367852</v>
+        <v>1.0116772483296503</v>
       </c>
       <c r="BD9" s="0">
         <v>94.319999999999993</v>
@@ -1707,166 +1707,166 @@
         <v>42461</v>
       </c>
       <c r="B10" s="0">
-        <v>-1.177799503301731</v>
+        <v>-1.2644954796792947</v>
       </c>
       <c r="C10" s="0">
-        <v>1.0208026012707423</v>
+        <v>1.0248569872430879</v>
       </c>
       <c r="D10" s="0">
-        <v>3.1782591684555555</v>
+        <v>3.2733166203016033</v>
       </c>
       <c r="E10" s="0">
-        <v>-2.0545464069454873</v>
+        <v>-1.7724036211242282</v>
       </c>
       <c r="F10" s="0">
-        <v>0.45519986501954474</v>
+        <v>0.6022747776197277</v>
       </c>
       <c r="G10" s="0">
-        <v>3.1322756496570339</v>
+        <v>3.0123498111743743</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.4515739056229631</v>
+        <v>-2.5117747697759398</v>
       </c>
       <c r="I10" s="0">
-        <v>0.49575936142302268</v>
+        <v>0.40204911122979847</v>
       </c>
       <c r="J10" s="0">
-        <v>3.2496413079852795</v>
+        <v>3.3029051790990147</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.47103611935867484</v>
+        <v>-0.57971480855055546</v>
       </c>
       <c r="L10" s="0">
-        <v>1.5431946470262461</v>
+        <v>1.5973745872546219</v>
       </c>
       <c r="M10" s="0">
-        <v>3.6409268502300467</v>
+        <v>3.7461298778991723</v>
       </c>
       <c r="N10" s="0">
-        <v>-1.1843873370861258</v>
+        <v>-1.2003613722231297</v>
       </c>
       <c r="O10" s="0">
-        <v>1.1392962603131531</v>
+        <v>1.279491058138311</v>
       </c>
       <c r="P10" s="0">
-        <v>3.8532904389754732</v>
+        <v>3.5858677508011425</v>
       </c>
       <c r="Q10" s="0">
-        <v>-2.6024373659710642</v>
+        <v>-2.315395875743806</v>
       </c>
       <c r="R10" s="0">
-        <v>0.58853909649641079</v>
+        <v>0.49882813849138091</v>
       </c>
       <c r="S10" s="0">
-        <v>3.5451516665918978</v>
+        <v>3.4856090808582589</v>
       </c>
       <c r="T10" s="0">
-        <v>-1.3921732816562697</v>
+        <v>-1.2231702751218161</v>
       </c>
       <c r="U10" s="0">
-        <v>0.9121323304013258</v>
+        <v>0.99183923682834807</v>
       </c>
       <c r="V10" s="0">
-        <v>2.9692837140711137</v>
+        <v>3.0407140999048883</v>
       </c>
       <c r="W10" s="0">
-        <v>-1.7014492766916018</v>
+        <v>-1.7288494418206239</v>
       </c>
       <c r="X10" s="0">
-        <v>0.76851829836521968</v>
+        <v>0.67149434732448654</v>
       </c>
       <c r="Y10" s="0">
-        <v>3.299619834497574</v>
+        <v>3.1331553456299837</v>
       </c>
       <c r="Z10" s="0">
-        <v>-2.1396805830099606</v>
+        <v>-2.0109370297397211</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.67621414469496088</v>
+        <v>0.73709754434604757</v>
       </c>
       <c r="AB10" s="0">
-        <v>3.5452346636204988</v>
+        <v>3.5742501570638892</v>
       </c>
       <c r="AC10" s="0">
-        <v>-1.0871810324733555</v>
+        <v>-1.1148680503758541</v>
       </c>
       <c r="AD10" s="0">
-        <v>0.019394181080769964</v>
+        <v>-0.026136262928883665</v>
       </c>
       <c r="AE10" s="0">
-        <v>1.1656274488754561</v>
+        <v>1.046887827432629</v>
       </c>
       <c r="AF10" s="0">
-        <v>-0.9391546849077298</v>
+        <v>-0.87276619361815078</v>
       </c>
       <c r="AG10" s="0">
-        <v>-0.010266867259967595</v>
+        <v>0.0064825333578689068</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.84791202273548127</v>
+        <v>0.96886658102021173</v>
       </c>
       <c r="AI10" s="0">
-        <v>-0.9920078061813542</v>
+        <v>-0.98361089333263596</v>
       </c>
       <c r="AJ10" s="0">
-        <v>-0.037902663820676981</v>
+        <v>-0.051309655403355012</v>
       </c>
       <c r="AK10" s="0">
-        <v>1.0451467704027484</v>
+        <v>0.9393060636001993</v>
       </c>
       <c r="AL10" s="0">
-        <v>-1.1408850747121286</v>
+        <v>-1.0578520732603551</v>
       </c>
       <c r="AM10" s="0">
-        <v>-0.019473878316946861</v>
+        <v>0.011915188306998241</v>
       </c>
       <c r="AN10" s="0">
-        <v>1.163921342131351</v>
+        <v>1.1554835513483532</v>
       </c>
       <c r="AO10" s="0">
-        <v>-0.88898920035096318</v>
+        <v>-0.88603364251236549</v>
       </c>
       <c r="AP10" s="0">
-        <v>0.013080070177722183</v>
+        <v>-0.0012210479764617962</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0.92702945367916911</v>
+        <v>0.90172483148805915</v>
       </c>
       <c r="AR10" s="0">
-        <v>-1.0536947452930499</v>
+        <v>-0.98109848280230016</v>
       </c>
       <c r="AS10" s="0">
-        <v>-0.064216508859660931</v>
+        <v>-0.022467691231663645</v>
       </c>
       <c r="AT10" s="0">
-        <v>0.99266106607298099</v>
+        <v>1.0352396647480004</v>
       </c>
       <c r="AU10" s="0">
-        <v>-1.1241981161545755</v>
+        <v>-1.062391538714567</v>
       </c>
       <c r="AV10" s="0">
-        <v>0.012578659777509434</v>
+        <v>0.044012647728580483</v>
       </c>
       <c r="AW10" s="0">
-        <v>1.1160903703799394</v>
+        <v>1.111736622744091</v>
       </c>
       <c r="AX10" s="0">
-        <v>-0.85594353387223998</v>
+        <v>-0.86077872729076965</v>
       </c>
       <c r="AY10" s="0">
-        <v>0.019953534095280355</v>
+        <v>0.017456010809703621</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0.93587010028589868</v>
+        <v>0.89397872489201324</v>
       </c>
       <c r="BA10" s="0">
-        <v>-1.0129970732865941</v>
+        <v>-1.0203276621948043</v>
       </c>
       <c r="BB10" s="0">
-        <v>0.022207039989475218</v>
+        <v>0.0076046617532940855</v>
       </c>
       <c r="BC10" s="0">
-        <v>1.0557107925572975</v>
+        <v>1.0682506392926956</v>
       </c>
       <c r="BD10" s="0">
         <v>94.319999999999993</v>
@@ -1883,166 +1883,166 @@
         <v>42552</v>
       </c>
       <c r="B11" s="0">
-        <v>-1.3039178101447515</v>
+        <v>-1.4832886192754065</v>
       </c>
       <c r="C11" s="0">
-        <v>0.94207561074348145</v>
+        <v>0.89967940768034971</v>
       </c>
       <c r="D11" s="0">
-        <v>3.0552028091514791</v>
+        <v>3.1658321181321165</v>
       </c>
       <c r="E11" s="0">
-        <v>-2.2204900629856885</v>
+        <v>-1.8503929502676137</v>
       </c>
       <c r="F11" s="0">
-        <v>0.51082351980556029</v>
+        <v>0.6529760123042454</v>
       </c>
       <c r="G11" s="0">
-        <v>3.1899111638910487</v>
+        <v>3.0864280761487293</v>
       </c>
       <c r="H11" s="0">
-        <v>-2.7753740604943902</v>
+        <v>-2.7611302748461188</v>
       </c>
       <c r="I11" s="0">
-        <v>0.56934922208922412</v>
+        <v>0.3321018719841477</v>
       </c>
       <c r="J11" s="0">
-        <v>3.5219744248419946</v>
+        <v>3.3527763981160312</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.70073633820142267</v>
+        <v>-0.53228631832470152</v>
       </c>
       <c r="L11" s="0">
-        <v>1.4965988088197149</v>
+        <v>1.5853328316136572</v>
       </c>
       <c r="M11" s="0">
-        <v>3.5856887387692371</v>
+        <v>3.7345481791235793</v>
       </c>
       <c r="N11" s="0">
-        <v>-1.2912950075886462</v>
+        <v>-1.3079963306634323</v>
       </c>
       <c r="O11" s="0">
-        <v>1.1800288055369568</v>
+        <v>1.1547182664404678</v>
       </c>
       <c r="P11" s="0">
-        <v>4.0297551161958687</v>
+        <v>3.5509358838070906</v>
       </c>
       <c r="Q11" s="0">
-        <v>-2.7302992163891098</v>
+        <v>-2.5634272582470778</v>
       </c>
       <c r="R11" s="0">
-        <v>0.5620479686267057</v>
+        <v>0.58724736308643655</v>
       </c>
       <c r="S11" s="0">
-        <v>3.8254141334102587</v>
+        <v>3.9658635072983595</v>
       </c>
       <c r="T11" s="0">
-        <v>-1.4753251996776358</v>
+        <v>-1.3657334756357176</v>
       </c>
       <c r="U11" s="0">
-        <v>0.8822047796160305</v>
+        <v>0.86995655324372612</v>
       </c>
       <c r="V11" s="0">
-        <v>2.8921526689951733</v>
+        <v>3.0952540432881048</v>
       </c>
       <c r="W11" s="0">
-        <v>-1.9150330703815202</v>
+        <v>-1.8920804353515508</v>
       </c>
       <c r="X11" s="0">
-        <v>0.70898258391403024</v>
+        <v>0.68372503637287552</v>
       </c>
       <c r="Y11" s="0">
-        <v>3.5434797758357996</v>
+        <v>3.2925832703624729</v>
       </c>
       <c r="Z11" s="0">
-        <v>-2.595592430644075</v>
+        <v>-2.3778210924434671</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.54096915299635906</v>
+        <v>0.63591164040400994</v>
       </c>
       <c r="AB11" s="0">
-        <v>3.775512631898418</v>
+        <v>3.739173058460258</v>
       </c>
       <c r="AC11" s="0">
-        <v>-1.1329834403570205</v>
+        <v>-1.0795418137508754</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.014758646624298615</v>
+        <v>-0.02696848411967475</v>
       </c>
       <c r="AE11" s="0">
-        <v>1.1746714088144108</v>
+        <v>1.160255041522916</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.88671493886378938</v>
+        <v>-0.84373989401516925</v>
       </c>
       <c r="AG11" s="0">
-        <v>-0.015478928446706872</v>
+        <v>0.0048462383088979776</v>
       </c>
       <c r="AH11" s="0">
-        <v>0.90426880667048093</v>
+        <v>0.93748241165021562</v>
       </c>
       <c r="AI11" s="0">
-        <v>-1.0343011175084418</v>
+        <v>-0.95020298418810478</v>
       </c>
       <c r="AJ11" s="0">
-        <v>0.065125467766310452</v>
+        <v>-0.006452622095116059</v>
       </c>
       <c r="AK11" s="0">
-        <v>1.0566571825041073</v>
+        <v>1.0012673086526012</v>
       </c>
       <c r="AL11" s="0">
-        <v>-1.1383618660205856</v>
+        <v>-1.0980378260114203</v>
       </c>
       <c r="AM11" s="0">
-        <v>-0.037307370125089175</v>
+        <v>0.060848414558509659</v>
       </c>
       <c r="AN11" s="0">
-        <v>1.0524572297732653</v>
+        <v>1.2025022366822467</v>
       </c>
       <c r="AO11" s="0">
-        <v>-0.82086882001648931</v>
+        <v>-0.87207882771218415</v>
       </c>
       <c r="AP11" s="0">
-        <v>0.0055416862232839752</v>
+        <v>-0.010287548071338276</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0.89894309214054746</v>
+        <v>0.90427045149021734</v>
       </c>
       <c r="AR11" s="0">
-        <v>-0.99481521346468682</v>
+        <v>-1.0395931364022513</v>
       </c>
       <c r="AS11" s="0">
-        <v>0.016356605492180151</v>
+        <v>0.066613005501276107</v>
       </c>
       <c r="AT11" s="0">
-        <v>1.0165055235196776</v>
+        <v>1.0457007202440534</v>
       </c>
       <c r="AU11" s="0">
-        <v>-1.1918621051923923</v>
+        <v>-1.1740292244966939</v>
       </c>
       <c r="AV11" s="0">
-        <v>-0.083293696560254538</v>
+        <v>-0.061673204650839308</v>
       </c>
       <c r="AW11" s="0">
-        <v>1.0649909506438449</v>
+        <v>1.0344336718759446</v>
       </c>
       <c r="AX11" s="0">
-        <v>-0.91624693337102403</v>
+        <v>-0.89639043967398258</v>
       </c>
       <c r="AY11" s="0">
-        <v>-0.0093713276691627066</v>
+        <v>-0.0084550758364342598</v>
       </c>
       <c r="AZ11" s="0">
-        <v>0.85964293450128682</v>
+        <v>0.87657116424074866</v>
       </c>
       <c r="BA11" s="0">
-        <v>-1.0818465129861528</v>
+        <v>-1.0671755784082204</v>
       </c>
       <c r="BB11" s="0">
-        <v>-0.024848463196893201</v>
+        <v>-0.0061357893041507176</v>
       </c>
       <c r="BC11" s="0">
-        <v>1.047185134466057</v>
+        <v>1.0704404225608224</v>
       </c>
       <c r="BD11" s="0">
         <v>94.319999999999993</v>
@@ -2059,166 +2059,166 @@
         <v>42644</v>
       </c>
       <c r="B12" s="0">
-        <v>-1.3065608309450298</v>
+        <v>-1.4095919193343556</v>
       </c>
       <c r="C12" s="0">
-        <v>0.94965862934825718</v>
+        <v>0.98182932983782889</v>
       </c>
       <c r="D12" s="0">
-        <v>3.2026152497021556</v>
+        <v>3.1983202600969145</v>
       </c>
       <c r="E12" s="0">
-        <v>-2.1988052754102894</v>
+        <v>-1.909596614754288</v>
       </c>
       <c r="F12" s="0">
-        <v>0.54990536015465841</v>
+        <v>0.58583872178060825</v>
       </c>
       <c r="G12" s="0">
-        <v>3.3500650327451686</v>
+        <v>3.2630391963834651</v>
       </c>
       <c r="H12" s="0">
-        <v>-3.080290314860294</v>
+        <v>-3.1143464092323834</v>
       </c>
       <c r="I12" s="0">
-        <v>0.35288771983246137</v>
+        <v>0.25714000823906746</v>
       </c>
       <c r="J12" s="0">
-        <v>3.7279549229565889</v>
+        <v>3.5626610360420328</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.83190021788986757</v>
+        <v>-0.69036725566882207</v>
       </c>
       <c r="L12" s="0">
-        <v>1.4094932787168968</v>
+        <v>1.574860309887169</v>
       </c>
       <c r="M12" s="0">
-        <v>3.557285908872835</v>
+        <v>3.8795478618180979</v>
       </c>
       <c r="N12" s="0">
-        <v>-1.5134923029637983</v>
+        <v>-1.4280357667930739</v>
       </c>
       <c r="O12" s="0">
-        <v>1.1893042516442835</v>
+        <v>1.0921192283638508</v>
       </c>
       <c r="P12" s="0">
-        <v>4.0984445180375824</v>
+        <v>3.6490417859419066</v>
       </c>
       <c r="Q12" s="0">
-        <v>-2.9926623402456278</v>
+        <v>-2.6072947166066847</v>
       </c>
       <c r="R12" s="0">
-        <v>0.62311194582049356</v>
+        <v>0.62199545724807281</v>
       </c>
       <c r="S12" s="0">
-        <v>4.0987928402481248</v>
+        <v>4.3049450998225334</v>
       </c>
       <c r="T12" s="0">
-        <v>-1.2374997758132427</v>
+        <v>-1.3302268996090181</v>
       </c>
       <c r="U12" s="0">
-        <v>0.87809083549105083</v>
+        <v>0.95792835657736108</v>
       </c>
       <c r="V12" s="0">
-        <v>3.0356078622882281</v>
+        <v>3.0490393249304777</v>
       </c>
       <c r="W12" s="0">
-        <v>-1.9607858737199069</v>
+        <v>-2.0281486612803876</v>
       </c>
       <c r="X12" s="0">
-        <v>0.65941982579270553</v>
+        <v>0.66073221778660085</v>
       </c>
       <c r="Y12" s="0">
-        <v>3.6598418420507191</v>
+        <v>3.3523753775816978</v>
       </c>
       <c r="Z12" s="0">
-        <v>-2.7906145544197032</v>
+        <v>-2.6429749982833188</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.42136388761703891</v>
+        <v>0.61756128968055457</v>
       </c>
       <c r="AB12" s="0">
-        <v>3.9164326368116531</v>
+        <v>3.8928931771542681</v>
       </c>
       <c r="AC12" s="0">
-        <v>-1.0506929221537376</v>
+        <v>-1.0490501027330628</v>
       </c>
       <c r="AD12" s="0">
-        <v>-0.028047421650049385</v>
+        <v>0.021009135724925937</v>
       </c>
       <c r="AE12" s="0">
-        <v>1.0911672209371495</v>
+        <v>1.0914753066644589</v>
       </c>
       <c r="AF12" s="0">
-        <v>-0.94643901875015879</v>
+        <v>-0.86658459598932702</v>
       </c>
       <c r="AG12" s="0">
-        <v>-0.037845240529361973</v>
+        <v>0.0049811692176312192</v>
       </c>
       <c r="AH12" s="0">
-        <v>0.90733267454683197</v>
+        <v>0.85920040326352598</v>
       </c>
       <c r="AI12" s="0">
-        <v>-1.039775687296733</v>
+        <v>-1.0308558326201056</v>
       </c>
       <c r="AJ12" s="0">
-        <v>-0.0043773899397493536</v>
+        <v>-0.038382965730212534</v>
       </c>
       <c r="AK12" s="0">
-        <v>1.0223222615380658</v>
+        <v>1.0258455942498323</v>
       </c>
       <c r="AL12" s="0">
-        <v>-1.1362058693839989</v>
+        <v>-1.1062282512499801</v>
       </c>
       <c r="AM12" s="0">
-        <v>-0.020946269064800384</v>
+        <v>0.055795296235668868</v>
       </c>
       <c r="AN12" s="0">
-        <v>1.1542934691117424</v>
+        <v>1.1646891507358654</v>
       </c>
       <c r="AO12" s="0">
-        <v>-0.85974321762113703</v>
+        <v>-0.89207864548555649</v>
       </c>
       <c r="AP12" s="0">
-        <v>0.028317663796820443</v>
+        <v>-0.026836411005390845</v>
       </c>
       <c r="AQ12" s="0">
-        <v>0.92301890627067396</v>
+        <v>0.82977845914996518</v>
       </c>
       <c r="AR12" s="0">
-        <v>-1.0167165087586232</v>
+        <v>-0.98536573720434728</v>
       </c>
       <c r="AS12" s="0">
-        <v>-0.018832621244218382</v>
+        <v>0.011156408745530699</v>
       </c>
       <c r="AT12" s="0">
-        <v>0.99866708395844661</v>
+        <v>1.0604459137407904</v>
       </c>
       <c r="AU12" s="0">
-        <v>-1.1408714719745263</v>
+        <v>-1.1430663685550591</v>
       </c>
       <c r="AV12" s="0">
-        <v>0.033019590661155701</v>
+        <v>-0.089143914822259612</v>
       </c>
       <c r="AW12" s="0">
-        <v>1.082854151938446</v>
+        <v>1.1480272074614317</v>
       </c>
       <c r="AX12" s="0">
-        <v>-0.86255708754607352</v>
+        <v>-0.86530538867917084</v>
       </c>
       <c r="AY12" s="0">
-        <v>0.02530966724746592</v>
+        <v>-0.0050232736876632024</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0.9591970939237805</v>
+        <v>0.8806340674481592</v>
       </c>
       <c r="BA12" s="0">
-        <v>-1.0437668003268648</v>
+        <v>-0.95406081783285157</v>
       </c>
       <c r="BB12" s="0">
-        <v>-0.0065421708478025642</v>
+        <v>0.0083771145913002221</v>
       </c>
       <c r="BC12" s="0">
-        <v>0.99732711880762515</v>
+        <v>1.0625894345882614</v>
       </c>
       <c r="BD12" s="0">
         <v>94.319999999999993</v>

--- a/SeparablePanel/output/redForecastPercentiles.xlsx
+++ b/SeparablePanel/output/redForecastPercentiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="754" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1044" uniqueCount="58">
   <si>
     <t>Time</t>
   </si>
@@ -240,7 +240,7 @@
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="true"/>
     <col min="2" max="2" width="13.42578125" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="13.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
@@ -248,17 +248,17 @@
     <col min="8" max="8" width="13.42578125" customWidth="true"/>
     <col min="9" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="13.42578125" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="13.42578125" customWidth="true"/>
+    <col min="14" max="14" width="13.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
     <col min="16" max="16" width="11.7109375" customWidth="true"/>
     <col min="17" max="17" width="13.42578125" customWidth="true"/>
-    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="13.7109375" customWidth="true"/>
     <col min="19" max="19" width="11.7109375" customWidth="true"/>
     <col min="20" max="20" width="13.42578125" customWidth="true"/>
-    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="11.7109375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
     <col min="23" max="23" width="13.42578125" customWidth="true"/>
     <col min="24" max="24" width="12.7109375" customWidth="true"/>
@@ -276,7 +276,7 @@
     <col min="36" max="36" width="15.42578125" customWidth="true"/>
     <col min="37" max="37" width="15.28515625" customWidth="true"/>
     <col min="38" max="38" width="15" customWidth="true"/>
-    <col min="39" max="39" width="15.42578125" customWidth="true"/>
+    <col min="39" max="39" width="15" customWidth="true"/>
     <col min="40" max="40" width="15" customWidth="true"/>
     <col min="41" max="41" width="17.140625" customWidth="true"/>
     <col min="42" max="42" width="17.140625" customWidth="true"/>
@@ -476,25 +476,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B2" s="0">
-        <v>1.8200000000000001</v>
+        <v>1.9299999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>1.8200000000000001</v>
+        <v>1.9299999999999999</v>
       </c>
       <c r="D2" s="0">
-        <v>1.8200000000000001</v>
+        <v>1.9299999999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="F2" s="0">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="G2" s="0">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="H2" s="0">
         <v>0.089999999999999997</v>
@@ -506,49 +506,49 @@
         <v>0.089999999999999997</v>
       </c>
       <c r="K2" s="0">
-        <v>0.78000000000000003</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="L2" s="0">
-        <v>0.78000000000000003</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="M2" s="0">
-        <v>0.78000000000000003</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="N2" s="0">
-        <v>0.77000000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="O2" s="0">
-        <v>0.77000000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="P2" s="0">
-        <v>0.77000000000000002</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="R2" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="S2" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="T2" s="0">
-        <v>2.9900000000000002</v>
+        <v>2.7200000000000002</v>
       </c>
       <c r="U2" s="0">
-        <v>2.9900000000000002</v>
+        <v>2.7200000000000002</v>
       </c>
       <c r="V2" s="0">
-        <v>2.9900000000000002</v>
+        <v>2.7200000000000002</v>
       </c>
       <c r="W2" s="0">
-        <v>1.71</v>
+        <v>1.4399999999999999</v>
       </c>
       <c r="X2" s="0">
-        <v>1.71</v>
+        <v>1.4399999999999999</v>
       </c>
       <c r="Y2" s="0">
-        <v>1.71</v>
+        <v>1.4399999999999999</v>
       </c>
       <c r="Z2" s="0">
         <v>0.5</v>
@@ -592,79 +592,79 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B3" s="0">
-        <v>1.9299999999999999</v>
+        <v>2.6800000000000002</v>
       </c>
       <c r="C3" s="0">
-        <v>1.9299999999999999</v>
+        <v>2.6800000000000002</v>
       </c>
       <c r="D3" s="0">
-        <v>1.9299999999999999</v>
+        <v>2.6800000000000002</v>
       </c>
       <c r="E3" s="0">
-        <v>1.28</v>
+        <v>0.62</v>
       </c>
       <c r="F3" s="0">
-        <v>1.28</v>
+        <v>0.62</v>
       </c>
       <c r="G3" s="0">
-        <v>1.28</v>
+        <v>0.62</v>
       </c>
       <c r="H3" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="J3" s="0">
-        <v>0.089999999999999997</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="K3" s="0">
-        <v>0.79000000000000004</v>
+        <v>0.87</v>
       </c>
       <c r="L3" s="0">
-        <v>0.79000000000000004</v>
+        <v>0.87</v>
       </c>
       <c r="M3" s="0">
-        <v>0.79000000000000004</v>
+        <v>0.87</v>
       </c>
       <c r="N3" s="0">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="O3" s="0">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="P3" s="0">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.16</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="R3" s="0">
-        <v>0.16</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="S3" s="0">
-        <v>0.16</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="T3" s="0">
-        <v>2.7200000000000002</v>
+        <v>2.7599999999999998</v>
       </c>
       <c r="U3" s="0">
-        <v>2.7200000000000002</v>
+        <v>2.7599999999999998</v>
       </c>
       <c r="V3" s="0">
-        <v>2.7200000000000002</v>
+        <v>2.7599999999999998</v>
       </c>
       <c r="W3" s="0">
-        <v>1.4399999999999999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="X3" s="0">
-        <v>1.4399999999999999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="Y3" s="0">
-        <v>1.4399999999999999</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="Z3" s="0">
         <v>0.5</v>
@@ -708,285 +708,345 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B4" s="0">
-        <v>2.6800000000000002</v>
+        <v>1.3958349095987383</v>
       </c>
       <c r="C4" s="0">
-        <v>2.6800000000000002</v>
+        <v>2.5959941086430538</v>
       </c>
       <c r="D4" s="0">
-        <v>2.6800000000000002</v>
+        <v>3.7792440799736582</v>
       </c>
       <c r="E4" s="0">
-        <v>0.62</v>
+        <v>-0.36646290045013663</v>
       </c>
       <c r="F4" s="0">
-        <v>0.62</v>
+        <v>0.46270801370694747</v>
       </c>
       <c r="G4" s="0">
-        <v>0.62</v>
+        <v>1.4670058829391395</v>
       </c>
       <c r="H4" s="0">
-        <v>0.10000000000000001</v>
+        <v>-0.78106148436699652</v>
       </c>
       <c r="I4" s="0">
-        <v>0.10000000000000001</v>
+        <v>0.32030889403738844</v>
       </c>
       <c r="J4" s="0">
-        <v>0.10000000000000001</v>
+        <v>1.3574987577830115</v>
       </c>
       <c r="K4" s="0">
-        <v>0.87</v>
+        <v>-0.17289824327003245</v>
       </c>
       <c r="L4" s="0">
-        <v>0.87</v>
+        <v>1.0107083650500341</v>
       </c>
       <c r="M4" s="0">
-        <v>0.87</v>
+        <v>2.1379727103022517</v>
       </c>
       <c r="N4" s="0">
-        <v>1.47</v>
+        <v>0.62548257770074533</v>
       </c>
       <c r="O4" s="0">
-        <v>1.47</v>
+        <v>1.5438366292812287</v>
       </c>
       <c r="P4" s="0">
-        <v>1.47</v>
+        <v>2.3941163044731546</v>
       </c>
       <c r="Q4" s="0">
-        <v>0.080000000000000002</v>
+        <v>-0.94216559951886047</v>
       </c>
       <c r="R4" s="0">
-        <v>0.080000000000000002</v>
+        <v>0.047235268948358576</v>
       </c>
       <c r="S4" s="0">
-        <v>0.080000000000000002</v>
+        <v>1.0907353186996271</v>
       </c>
       <c r="T4" s="0">
-        <v>2.7599999999999998</v>
+        <v>1.2175923651254723</v>
       </c>
       <c r="U4" s="0">
-        <v>2.7599999999999998</v>
+        <v>2.4578626334759575</v>
       </c>
       <c r="V4" s="0">
-        <v>2.7599999999999998</v>
+        <v>3.5806525626775465</v>
       </c>
       <c r="W4" s="0">
-        <v>0.91000000000000003</v>
+        <v>-0.15268081163139613</v>
       </c>
       <c r="X4" s="0">
-        <v>0.91000000000000003</v>
+        <v>0.74354824240549444</v>
       </c>
       <c r="Y4" s="0">
-        <v>0.91000000000000003</v>
+        <v>1.6425162764168</v>
       </c>
       <c r="Z4" s="0">
-        <v>0.5</v>
+        <v>-0.37825891130576245</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.5</v>
+        <v>0.65160840179907176</v>
       </c>
       <c r="AB4" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="AC4" s="0"/>
-      <c r="AD4" s="0"/>
-      <c r="AE4" s="0"/>
-      <c r="AF4" s="0"/>
-      <c r="AG4" s="0"/>
-      <c r="AH4" s="0"/>
-      <c r="AI4" s="0"/>
-      <c r="AJ4" s="0"/>
-      <c r="AK4" s="0"/>
-      <c r="AL4" s="0"/>
-      <c r="AM4" s="0"/>
-      <c r="AN4" s="0"/>
-      <c r="AO4" s="0"/>
-      <c r="AP4" s="0"/>
-      <c r="AQ4" s="0"/>
-      <c r="AR4" s="0"/>
-      <c r="AS4" s="0"/>
-      <c r="AT4" s="0"/>
-      <c r="AU4" s="0"/>
-      <c r="AV4" s="0"/>
-      <c r="AW4" s="0"/>
-      <c r="AX4" s="0"/>
-      <c r="AY4" s="0"/>
-      <c r="AZ4" s="0"/>
-      <c r="BA4" s="0"/>
-      <c r="BB4" s="0"/>
-      <c r="BC4" s="0"/>
-      <c r="BD4" s="0"/>
-      <c r="BE4" s="0"/>
-      <c r="BF4" s="0"/>
+        <v>1.7371467357027592</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>-1.2043002304494028</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>-0.017140919200447712</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>1.1725199606662557</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>-0.87696321813993761</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>-0.036877551573622137</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>0.98896220112937128</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>-1.1006530354698412</v>
+      </c>
+      <c r="AJ4" s="0">
+        <v>0.010021898022769662</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>1.0463810330487839</v>
+      </c>
+      <c r="AL4" s="0">
+        <v>-1.2090743740678409</v>
+      </c>
+      <c r="AM4" s="0">
+        <v>-0.018590729637235424</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>1.1055451596115766</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>-0.89015364200748259</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>0.0045171032220268151</v>
+      </c>
+      <c r="AQ4" s="0">
+        <v>0.86687083207693627</v>
+      </c>
+      <c r="AR4" s="0">
+        <v>-1.0298172528845497</v>
+      </c>
+      <c r="AS4" s="0">
+        <v>-0.021206618826267148</v>
+      </c>
+      <c r="AT4" s="0">
+        <v>1.0062067178911858</v>
+      </c>
+      <c r="AU4" s="0">
+        <v>-1.2083607094751572</v>
+      </c>
+      <c r="AV4" s="0">
+        <v>0.046855299460222551</v>
+      </c>
+      <c r="AW4" s="0">
+        <v>1.1379301060324902</v>
+      </c>
+      <c r="AX4" s="0">
+        <v>-0.88376362514488171</v>
+      </c>
+      <c r="AY4" s="0">
+        <v>0.039062313034317564</v>
+      </c>
+      <c r="AZ4" s="0">
+        <v>0.92281699050781829</v>
+      </c>
+      <c r="BA4" s="0">
+        <v>-1.0351760351954398</v>
+      </c>
+      <c r="BB4" s="0">
+        <v>-0.0077890838403181714</v>
+      </c>
+      <c r="BC4" s="0">
+        <v>1.0752663996673903</v>
+      </c>
+      <c r="BD4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="BE4" s="0">
+        <v>94.319999999999993</v>
+      </c>
+      <c r="BF4" s="0">
+        <v>94.319999999999993</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B5" s="0">
-        <v>1.3802131890840679</v>
+        <v>0.61413519328952471</v>
       </c>
       <c r="C5" s="0">
-        <v>2.5455663043203391</v>
+        <v>2.2200885019584682</v>
       </c>
       <c r="D5" s="0">
-        <v>3.6620209523739282</v>
+        <v>3.9385017000481328</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.4268805510738356</v>
+        <v>-1.0033242047403017</v>
       </c>
       <c r="F5" s="0">
-        <v>0.501422885241251</v>
+        <v>0.45539656584996169</v>
       </c>
       <c r="G5" s="0">
-        <v>1.4127010273149216</v>
+        <v>2.0354587610829893</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.72619257634153589</v>
+        <v>-1.2256238052511943</v>
       </c>
       <c r="I5" s="0">
-        <v>0.31531130197705826</v>
+        <v>0.48123133928073336</v>
       </c>
       <c r="J5" s="0">
-        <v>1.3881228177207068</v>
+        <v>2.060882903378964</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.012337559943525533</v>
+        <v>-0.58693772290478341</v>
       </c>
       <c r="L5" s="0">
-        <v>1.0280395681277517</v>
+        <v>1.2053000869348067</v>
       </c>
       <c r="M5" s="0">
-        <v>2.0784431598227098</v>
+        <v>2.8044991385557023</v>
       </c>
       <c r="N5" s="0">
-        <v>0.65632584113094572</v>
+        <v>0.086112289273991727</v>
       </c>
       <c r="O5" s="0">
-        <v>1.5054482912189933</v>
+        <v>1.5302398351140187</v>
       </c>
       <c r="P5" s="0">
-        <v>2.3954868196436196</v>
+        <v>2.9358456493954423</v>
       </c>
       <c r="Q5" s="0">
-        <v>-0.93378307782391934</v>
+        <v>-1.3601369273653194</v>
       </c>
       <c r="R5" s="0">
-        <v>0.12528626559860043</v>
+        <v>0.17814807889766746</v>
       </c>
       <c r="S5" s="0">
-        <v>1.086839277664408</v>
+        <v>1.8998406077729637</v>
       </c>
       <c r="T5" s="0">
-        <v>1.1633826938291394</v>
+        <v>0.17358777386932756</v>
       </c>
       <c r="U5" s="0">
-        <v>2.2646252107888158</v>
+        <v>2.0906642264830868</v>
       </c>
       <c r="V5" s="0">
-        <v>3.3867871887025469</v>
+        <v>3.7586257461688417</v>
       </c>
       <c r="W5" s="0">
-        <v>-0.18599545803524603</v>
+        <v>-0.80363078051983072</v>
       </c>
       <c r="X5" s="0">
-        <v>0.70292771958072242</v>
+        <v>0.72169050371086252</v>
       </c>
       <c r="Y5" s="0">
-        <v>1.6249637978438418</v>
+        <v>2.1221832521057795</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.25996769097777411</v>
+        <v>-0.89017281506468149</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.70727740813721929</v>
+        <v>0.73973316195932914</v>
       </c>
       <c r="AB5" s="0">
-        <v>1.8032468414124088</v>
+        <v>2.4078215714912954</v>
       </c>
       <c r="AC5" s="0">
-        <v>-1.1511635092190629</v>
+        <v>-1.1432001177212578</v>
       </c>
       <c r="AD5" s="0">
-        <v>0.032832611987346244</v>
+        <v>-0.033873735185423491</v>
       </c>
       <c r="AE5" s="0">
-        <v>1.1421320202838992</v>
+        <v>1.1595243525106498</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.90742723118872226</v>
+        <v>-0.89360825981466885</v>
       </c>
       <c r="AG5" s="0">
-        <v>0.022035919939104573</v>
+        <v>0.0092355228482744432</v>
       </c>
       <c r="AH5" s="0">
-        <v>0.94290400373339289</v>
+        <v>0.89427323461039898</v>
       </c>
       <c r="AI5" s="0">
-        <v>-1.0571506992875037</v>
+        <v>-1.0628388886949725</v>
       </c>
       <c r="AJ5" s="0">
-        <v>-0.011727165884074225</v>
+        <v>0.086358647413659534</v>
       </c>
       <c r="AK5" s="0">
-        <v>1.0453329564994673</v>
+        <v>1.0537123712006895</v>
       </c>
       <c r="AL5" s="0">
-        <v>-1.0514170599737267</v>
+        <v>-1.1803896755117074</v>
       </c>
       <c r="AM5" s="0">
-        <v>-0.0060008942181561005</v>
+        <v>0.0074063965445549549</v>
       </c>
       <c r="AN5" s="0">
-        <v>1.0518713825828589</v>
+        <v>1.1648973903219335</v>
       </c>
       <c r="AO5" s="0">
-        <v>-0.85297422522755095</v>
+        <v>-0.86992311972516689</v>
       </c>
       <c r="AP5" s="0">
-        <v>-0.0030303013598369632</v>
+        <v>0.069032128514631808</v>
       </c>
       <c r="AQ5" s="0">
-        <v>0.89164956475448287</v>
+        <v>0.96290710672174296</v>
       </c>
       <c r="AR5" s="0">
-        <v>-1.0223788754976524</v>
+        <v>-0.93845101792113361</v>
       </c>
       <c r="AS5" s="0">
-        <v>0.036118075430226632</v>
+        <v>0.048103517752863499</v>
       </c>
       <c r="AT5" s="0">
-        <v>1.0134594992391297</v>
+        <v>1.1241010570325702</v>
       </c>
       <c r="AU5" s="0">
-        <v>-1.0962986156366759</v>
+        <v>-1.1829031897533941</v>
       </c>
       <c r="AV5" s="0">
-        <v>-0.041129970410306249</v>
+        <v>0.023411055980267229</v>
       </c>
       <c r="AW5" s="0">
-        <v>1.0971452838403071</v>
+        <v>1.2270611624187939</v>
       </c>
       <c r="AX5" s="0">
-        <v>-0.91479837921898643</v>
+        <v>-0.89252862743539541</v>
       </c>
       <c r="AY5" s="0">
-        <v>-0.017637103806815473</v>
+        <v>0.025161795927211482</v>
       </c>
       <c r="AZ5" s="0">
-        <v>0.86876665135852615</v>
+        <v>0.87540460977719792</v>
       </c>
       <c r="BA5" s="0">
-        <v>-0.98851343673990544</v>
+        <v>-1.0681267524842419</v>
       </c>
       <c r="BB5" s="0">
-        <v>-0.0078908007309590397</v>
+        <v>0.001694049588904685</v>
       </c>
       <c r="BC5" s="0">
-        <v>1.0807456543299163</v>
+        <v>1.0530131819270976</v>
       </c>
       <c r="BD5" s="0">
         <v>94.319999999999993</v>
@@ -1000,169 +1060,169 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B6" s="0">
-        <v>0.77487737230575449</v>
+        <v>-0.10468773149169791</v>
       </c>
       <c r="C6" s="0">
-        <v>2.426067690173725</v>
+        <v>1.8778807129413564</v>
       </c>
       <c r="D6" s="0">
-        <v>4.1046854126587631</v>
+        <v>3.7976049655419271</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.91349948372929746</v>
+        <v>-1.3468900347515635</v>
       </c>
       <c r="F6" s="0">
-        <v>0.59270435957449097</v>
+        <v>0.46359167633312637</v>
       </c>
       <c r="G6" s="0">
-        <v>2.0468012083922913</v>
+        <v>2.4653379578803625</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.2978905243355383</v>
+        <v>-1.5820234693280719</v>
       </c>
       <c r="I6" s="0">
-        <v>0.349999147137801</v>
+        <v>0.59824957078979546</v>
       </c>
       <c r="J6" s="0">
-        <v>1.9711629116027227</v>
+        <v>2.5855356964708349</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.39575245334281672</v>
+        <v>-0.58924732377443867</v>
       </c>
       <c r="L6" s="0">
-        <v>1.2035987354926694</v>
+        <v>1.2494495419655758</v>
       </c>
       <c r="M6" s="0">
-        <v>2.7303996041088348</v>
+        <v>3.2454703893638674</v>
       </c>
       <c r="N6" s="0">
-        <v>0.11807528289777613</v>
+        <v>-0.32560638192100139</v>
       </c>
       <c r="O6" s="0">
-        <v>1.5006939093512295</v>
+        <v>1.508425913033024</v>
       </c>
       <c r="P6" s="0">
-        <v>2.8833382437322532</v>
+        <v>3.4132920981074326</v>
       </c>
       <c r="Q6" s="0">
-        <v>-1.5207566727058901</v>
+        <v>-1.7239913106424627</v>
       </c>
       <c r="R6" s="0">
-        <v>0.18919407067483468</v>
+        <v>0.37914440360450602</v>
       </c>
       <c r="S6" s="0">
-        <v>1.8081832306168888</v>
+        <v>2.4843998009219321</v>
       </c>
       <c r="T6" s="0">
-        <v>0.31922132919381596</v>
+        <v>-0.34778629700903785</v>
       </c>
       <c r="U6" s="0">
-        <v>1.8916443157619511</v>
+        <v>1.8080196400026423</v>
       </c>
       <c r="V6" s="0">
-        <v>3.4908063037639883</v>
+        <v>3.6720245528553139</v>
       </c>
       <c r="W6" s="0">
-        <v>-0.73791935487906701</v>
+        <v>-1.2396871573355799</v>
       </c>
       <c r="X6" s="0">
-        <v>0.67453674290535393</v>
+        <v>0.66127629030386559</v>
       </c>
       <c r="Y6" s="0">
-        <v>2.1558322535795882</v>
+        <v>2.4065998522742005</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.79901513057794915</v>
+        <v>-1.3708571973248307</v>
       </c>
       <c r="AA6" s="0">
-        <v>0.76520635182107155</v>
+        <v>0.75943330635150597</v>
       </c>
       <c r="AB6" s="0">
-        <v>2.4087735096995102</v>
+        <v>2.8139541509931889</v>
       </c>
       <c r="AC6" s="0">
-        <v>-1.0614072666037493</v>
+        <v>-1.2054780535531573</v>
       </c>
       <c r="AD6" s="0">
-        <v>-0.011753447976942</v>
+        <v>-0.087489956688451581</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.1440045989295136</v>
+        <v>1.0904234493910101</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.92942485426573285</v>
+        <v>-0.9146941632987744</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.0044498874713572462</v>
+        <v>0.03317714693379608</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.93864819392967058</v>
+        <v>0.94368644226284082</v>
       </c>
       <c r="AI6" s="0">
-        <v>-1.058795645650453</v>
+        <v>-0.94745703951941507</v>
       </c>
       <c r="AJ6" s="0">
-        <v>-0.055906346312730837</v>
+        <v>0.062876182474927086</v>
       </c>
       <c r="AK6" s="0">
-        <v>0.99798560827181348</v>
+        <v>1.0930177919886892</v>
       </c>
       <c r="AL6" s="0">
-        <v>-1.0818895166216338</v>
+        <v>-1.234502615537435</v>
       </c>
       <c r="AM6" s="0">
-        <v>-0.012439677886666695</v>
+        <v>-0.023258148536336901</v>
       </c>
       <c r="AN6" s="0">
-        <v>1.1776833366643145</v>
+        <v>1.1282751199551142</v>
       </c>
       <c r="AO6" s="0">
-        <v>-0.85796958258118872</v>
+        <v>-0.8725298317806951</v>
       </c>
       <c r="AP6" s="0">
-        <v>0.029635039032510919</v>
+        <v>0.05401954230039259</v>
       </c>
       <c r="AQ6" s="0">
-        <v>0.8925856202753536</v>
+        <v>0.87742033060423497</v>
       </c>
       <c r="AR6" s="0">
-        <v>-1.0287318362750537</v>
+        <v>-1.0459315663209621</v>
       </c>
       <c r="AS6" s="0">
-        <v>-0.031685350301117909</v>
+        <v>0.044799570091999488</v>
       </c>
       <c r="AT6" s="0">
-        <v>1.0135915984636583</v>
+        <v>1.0415637664984361</v>
       </c>
       <c r="AU6" s="0">
-        <v>-1.1064201213035743</v>
+        <v>-1.1563911645653102</v>
       </c>
       <c r="AV6" s="0">
-        <v>-0.070500849457870496</v>
+        <v>-0.023447269359712367</v>
       </c>
       <c r="AW6" s="0">
-        <v>0.99178297640171076</v>
+        <v>1.1628190449743485</v>
       </c>
       <c r="AX6" s="0">
-        <v>-0.91172622405458636</v>
+        <v>-0.9320251402727785</v>
       </c>
       <c r="AY6" s="0">
-        <v>-0.017528196124861142</v>
+        <v>0.011693714822123408</v>
       </c>
       <c r="AZ6" s="0">
-        <v>0.90545138914335777</v>
+        <v>0.84499775224040807</v>
       </c>
       <c r="BA6" s="0">
-        <v>-1.0609955826183095</v>
+        <v>-1.046803443233318</v>
       </c>
       <c r="BB6" s="0">
-        <v>-0.060238859896857247</v>
+        <v>0.0085258382125041367</v>
       </c>
       <c r="BC6" s="0">
-        <v>0.95249514348381048</v>
+        <v>1.0685130850126396</v>
       </c>
       <c r="BD6" s="0">
         <v>94.319999999999993</v>
@@ -1176,169 +1236,169 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.032684769997065599</v>
+        <v>-0.48190252037408521</v>
       </c>
       <c r="C7" s="0">
-        <v>2.0140641823584797</v>
+        <v>1.5413307524825983</v>
       </c>
       <c r="D7" s="0">
-        <v>3.8480012280757765</v>
+        <v>3.5531527516785304</v>
       </c>
       <c r="E7" s="0">
-        <v>-1.3293006089820207</v>
+        <v>-1.6650417539571829</v>
       </c>
       <c r="F7" s="0">
-        <v>0.56445411235051113</v>
+        <v>0.39865344666938396</v>
       </c>
       <c r="G7" s="0">
-        <v>2.4205795943728114</v>
+        <v>2.7234211902842658</v>
       </c>
       <c r="H7" s="0">
-        <v>-1.6615138594928329</v>
+        <v>-2.0395019398114411</v>
       </c>
       <c r="I7" s="0">
-        <v>0.42908052110463685</v>
+        <v>0.47929773728473613</v>
       </c>
       <c r="J7" s="0">
-        <v>2.4886229221287879</v>
+        <v>2.8600423972474918</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.55094891786223377</v>
+        <v>-0.6396729835460172</v>
       </c>
       <c r="L7" s="0">
-        <v>1.3709771379898119</v>
+        <v>1.4707209021831527</v>
       </c>
       <c r="M7" s="0">
-        <v>3.1220921760301499</v>
+        <v>3.5586324925741128</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.39556692540242822</v>
+        <v>-0.62518608264859066</v>
       </c>
       <c r="O7" s="0">
-        <v>1.3478490175729001</v>
+        <v>1.4672032261687793</v>
       </c>
       <c r="P7" s="0">
-        <v>3.241548793274057</v>
+        <v>3.6932986292859411</v>
       </c>
       <c r="Q7" s="0">
-        <v>-1.8454537761773939</v>
+        <v>-2.017618799985331</v>
       </c>
       <c r="R7" s="0">
-        <v>0.26982968608833702</v>
+        <v>0.48275662827287036</v>
       </c>
       <c r="S7" s="0">
-        <v>2.3897122505190325</v>
+        <v>2.9656101526536656</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.58195092988440855</v>
+        <v>-0.60623173173449918</v>
       </c>
       <c r="U7" s="0">
-        <v>1.4718342499751804</v>
+        <v>1.5419281759011532</v>
       </c>
       <c r="V7" s="0">
-        <v>3.3889118865094483</v>
+        <v>3.5897679776685956</v>
       </c>
       <c r="W7" s="0">
-        <v>-1.1286060579586588</v>
+        <v>-1.46739754305097</v>
       </c>
       <c r="X7" s="0">
-        <v>0.71612950788560359</v>
+        <v>0.57472363122163062</v>
       </c>
       <c r="Y7" s="0">
-        <v>2.5244728998698975</v>
+        <v>2.5864759416089473</v>
       </c>
       <c r="Z7" s="0">
-        <v>-1.1863303169416692</v>
+        <v>-1.7872833802167936</v>
       </c>
       <c r="AA7" s="0">
-        <v>0.86246923269343245</v>
+        <v>0.74388594257953078</v>
       </c>
       <c r="AB7" s="0">
-        <v>2.8414340919244889</v>
+        <v>3.2490983477614619</v>
       </c>
       <c r="AC7" s="0">
-        <v>-1.127866103832218</v>
+        <v>-1.1291909135036216</v>
       </c>
       <c r="AD7" s="0">
-        <v>0.028064721847383546</v>
+        <v>0.0075640403138991369</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.1434698593634858</v>
+        <v>1.1484644692982078</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.90079325030030799</v>
+        <v>-0.89180553725310763</v>
       </c>
       <c r="AG7" s="0">
-        <v>-0.021650799037254954</v>
+        <v>-0.011363950739668238</v>
       </c>
       <c r="AH7" s="0">
-        <v>0.82784630105263513</v>
+        <v>0.85438066543253488</v>
       </c>
       <c r="AI7" s="0">
-        <v>-0.95828202150483166</v>
+        <v>-1.1544348253309824</v>
       </c>
       <c r="AJ7" s="0">
-        <v>-0.020270324892587399</v>
+        <v>0.015702748888894481</v>
       </c>
       <c r="AK7" s="0">
-        <v>1.0528051847177085</v>
+        <v>1.0325807981569397</v>
       </c>
       <c r="AL7" s="0">
-        <v>-1.071146206782247</v>
+        <v>-1.1680737762185096</v>
       </c>
       <c r="AM7" s="0">
-        <v>-0.033808655548014918</v>
+        <v>0.032887727561502954</v>
       </c>
       <c r="AN7" s="0">
-        <v>1.0997076491603406</v>
+        <v>1.1803655704288702</v>
       </c>
       <c r="AO7" s="0">
-        <v>-0.93065497775047401</v>
+        <v>-0.86964677866086859</v>
       </c>
       <c r="AP7" s="0">
-        <v>0.0060069994386284589</v>
+        <v>0.0333884519762392</v>
       </c>
       <c r="AQ7" s="0">
-        <v>0.84246474577351804</v>
+        <v>0.90145956027504748</v>
       </c>
       <c r="AR7" s="0">
-        <v>-1.0380210288016694</v>
+        <v>-1.0384416810586901</v>
       </c>
       <c r="AS7" s="0">
-        <v>-0.044554711938982569</v>
+        <v>-0.021769052347567375</v>
       </c>
       <c r="AT7" s="0">
-        <v>1.0283669153549149</v>
+        <v>0.956178831010706</v>
       </c>
       <c r="AU7" s="0">
-        <v>-1.1967742817841591</v>
+        <v>-1.1812332171268487</v>
       </c>
       <c r="AV7" s="0">
-        <v>-0.039959468698005388</v>
+        <v>0.017736205598954426</v>
       </c>
       <c r="AW7" s="0">
-        <v>1.0952872236806717</v>
+        <v>1.1653475204319728</v>
       </c>
       <c r="AX7" s="0">
-        <v>-0.86471328309361528</v>
+        <v>-0.9097425653533191</v>
       </c>
       <c r="AY7" s="0">
-        <v>0.030296265217768549</v>
+        <v>-0.014228401908948463</v>
       </c>
       <c r="AZ7" s="0">
-        <v>0.86659548345715165</v>
+        <v>0.9339243935380761</v>
       </c>
       <c r="BA7" s="0">
-        <v>-0.99436445339107438</v>
+        <v>-1.0488486381285536</v>
       </c>
       <c r="BB7" s="0">
-        <v>0.0064591463217975945</v>
+        <v>0.041845202969846729</v>
       </c>
       <c r="BC7" s="0">
-        <v>1.0445607497601297</v>
+        <v>1.0465144913812323</v>
       </c>
       <c r="BD7" s="0">
         <v>94.319999999999993</v>
@@ -1352,169 +1412,169 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.56771826349318777</v>
+        <v>-0.73659256640338922</v>
       </c>
       <c r="C8" s="0">
-        <v>1.582979370322267</v>
+        <v>1.3775590858053963</v>
       </c>
       <c r="D8" s="0">
-        <v>3.6479887611651582</v>
+        <v>3.3149774917150197</v>
       </c>
       <c r="E8" s="0">
-        <v>-1.4871255266098458</v>
+        <v>-1.8254014993027714</v>
       </c>
       <c r="F8" s="0">
-        <v>0.48994467794100172</v>
+        <v>0.39061952415208334</v>
       </c>
       <c r="G8" s="0">
-        <v>2.7389562859329333</v>
+        <v>2.8703332075620525</v>
       </c>
       <c r="H8" s="0">
-        <v>-1.9508788485325459</v>
+        <v>-2.18802484572673</v>
       </c>
       <c r="I8" s="0">
-        <v>0.49128489357792476</v>
+        <v>0.40763008337927686</v>
       </c>
       <c r="J8" s="0">
-        <v>2.8370788204482515</v>
+        <v>3.0690806623387763</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.49759510416876679</v>
+        <v>-0.57820911458333757</v>
       </c>
       <c r="L8" s="0">
-        <v>1.4724872492219965</v>
+        <v>1.5366789640810645</v>
       </c>
       <c r="M8" s="0">
-        <v>3.3065079817543381</v>
+        <v>3.6178608975757385</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.73310582012267034</v>
+        <v>-0.86033888280210191</v>
       </c>
       <c r="O8" s="0">
-        <v>1.2564949741016311</v>
+        <v>1.4720241313988423</v>
       </c>
       <c r="P8" s="0">
-        <v>3.3893649960845948</v>
+        <v>3.7455264921283904</v>
       </c>
       <c r="Q8" s="0">
-        <v>-2.1101866174753376</v>
+        <v>-2.1509434440752608</v>
       </c>
       <c r="R8" s="0">
-        <v>0.29875950414383806</v>
+        <v>0.60017208400010591</v>
       </c>
       <c r="S8" s="0">
-        <v>2.6916688637540052</v>
+        <v>3.4561191923154744</v>
       </c>
       <c r="T8" s="0">
-        <v>-0.98252006325814945</v>
+        <v>-0.7529724213171054</v>
       </c>
       <c r="U8" s="0">
-        <v>1.1736688048198571</v>
+        <v>1.4416150342162037</v>
       </c>
       <c r="V8" s="0">
-        <v>3.2410923536365521</v>
+        <v>3.5711367438351322</v>
       </c>
       <c r="W8" s="0">
-        <v>-1.4473843225516709</v>
+        <v>-1.6836602435143631</v>
       </c>
       <c r="X8" s="0">
-        <v>0.66919159366337877</v>
+        <v>0.5869835144234159</v>
       </c>
       <c r="Y8" s="0">
-        <v>2.9105196239015489</v>
+        <v>2.9415177183510228</v>
       </c>
       <c r="Z8" s="0">
-        <v>-1.5176066494672042</v>
+        <v>-2.3479370893821145</v>
       </c>
       <c r="AA8" s="0">
-        <v>0.90159677750850697</v>
+        <v>0.68943638509420979</v>
       </c>
       <c r="AB8" s="0">
-        <v>3.1980479229564143</v>
+        <v>3.4815557554930119</v>
       </c>
       <c r="AC8" s="0">
-        <v>-1.0665084034692618</v>
+        <v>-1.1422962173876674</v>
       </c>
       <c r="AD8" s="0">
-        <v>-0.043567868069597997</v>
+        <v>-0.058730988270143523</v>
       </c>
       <c r="AE8" s="0">
-        <v>1.117375018518155</v>
+        <v>1.1824155832278795</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.87180688727097833</v>
+        <v>-0.89243639563038291</v>
       </c>
       <c r="AG8" s="0">
-        <v>0.030373110687036319</v>
+        <v>0.029164972172730935</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.91007999720083277</v>
+        <v>0.85015328081221675</v>
       </c>
       <c r="AI8" s="0">
-        <v>-0.94671612299974806</v>
+        <v>-1.0254592858051315</v>
       </c>
       <c r="AJ8" s="0">
-        <v>0.010543701281644729</v>
+        <v>0.013912804338894733</v>
       </c>
       <c r="AK8" s="0">
-        <v>1.0692405424549025</v>
+        <v>1.0632015298155633</v>
       </c>
       <c r="AL8" s="0">
-        <v>-0.98511801479564531</v>
+        <v>-1.1341218129383925</v>
       </c>
       <c r="AM8" s="0">
-        <v>-0.0088631069400935819</v>
+        <v>-0.016840332714000171</v>
       </c>
       <c r="AN8" s="0">
-        <v>1.136434214525206</v>
+        <v>1.2054649795148222</v>
       </c>
       <c r="AO8" s="0">
-        <v>-0.96524879117854012</v>
+        <v>-0.8881028886085286</v>
       </c>
       <c r="AP8" s="0">
-        <v>-0.038648423580474052</v>
+        <v>0.066553535419428336</v>
       </c>
       <c r="AQ8" s="0">
-        <v>0.83248439561804766</v>
+        <v>0.96611630725385789</v>
       </c>
       <c r="AR8" s="0">
-        <v>-1.0972779079732571</v>
+        <v>-1.0403461039158532</v>
       </c>
       <c r="AS8" s="0">
-        <v>-0.045690945071332603</v>
+        <v>0.0013283645668643804</v>
       </c>
       <c r="AT8" s="0">
-        <v>0.99769368100247702</v>
+        <v>1.0557085929701153</v>
       </c>
       <c r="AU8" s="0">
-        <v>-1.0026825107659891</v>
+        <v>-1.2218733118042584</v>
       </c>
       <c r="AV8" s="0">
-        <v>0.019597241814091684</v>
+        <v>0.030775191671244123</v>
       </c>
       <c r="AW8" s="0">
-        <v>1.1704973007760335</v>
+        <v>1.1817149939500204</v>
       </c>
       <c r="AX8" s="0">
-        <v>-0.8786533813673173</v>
+        <v>-0.87881336579656733</v>
       </c>
       <c r="AY8" s="0">
-        <v>0.022783345150614226</v>
+        <v>-0.04279655008155879</v>
       </c>
       <c r="AZ8" s="0">
-        <v>0.91348100929202458</v>
+        <v>0.90585171833743772</v>
       </c>
       <c r="BA8" s="0">
-        <v>-0.99353280248753761</v>
+        <v>-1.114585525479844</v>
       </c>
       <c r="BB8" s="0">
-        <v>0.023857462396822404</v>
+        <v>-0.057223360065291169</v>
       </c>
       <c r="BC8" s="0">
-        <v>1.0552777315098441</v>
+        <v>1.0222912585595276</v>
       </c>
       <c r="BD8" s="0">
         <v>94.319999999999993</v>
@@ -1528,169 +1588,169 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.94182964971142202</v>
+        <v>-0.77036586974017318</v>
       </c>
       <c r="C9" s="0">
-        <v>1.2985354425025499</v>
+        <v>1.293876753750552</v>
       </c>
       <c r="D9" s="0">
-        <v>3.4193725621459894</v>
+        <v>3.4039906769747841</v>
       </c>
       <c r="E9" s="0">
-        <v>-1.639717806947929</v>
+        <v>-1.7773403003931452</v>
       </c>
       <c r="F9" s="0">
-        <v>0.54754317042911493</v>
+        <v>0.45541763205335534</v>
       </c>
       <c r="G9" s="0">
-        <v>2.9284161839076841</v>
+        <v>3.2400103818019019</v>
       </c>
       <c r="H9" s="0">
-        <v>-2.1646629884389776</v>
+        <v>-2.5094839305384298</v>
       </c>
       <c r="I9" s="0">
-        <v>0.4736604651036555</v>
+        <v>0.2916798097854707</v>
       </c>
       <c r="J9" s="0">
-        <v>2.9055957784303539</v>
+        <v>3.1912512131561241</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.6063131378338662</v>
+        <v>-0.65828544956931556</v>
       </c>
       <c r="L9" s="0">
-        <v>1.5278452079765263</v>
+        <v>1.5587878194393661</v>
       </c>
       <c r="M9" s="0">
-        <v>3.546953581246691</v>
+        <v>3.6294850905651241</v>
       </c>
       <c r="N9" s="0">
-        <v>-1.0866872749813086</v>
+        <v>-1.0436490618897771</v>
       </c>
       <c r="O9" s="0">
-        <v>1.25564378214739</v>
+        <v>1.3032007552203395</v>
       </c>
       <c r="P9" s="0">
-        <v>3.5414037365728905</v>
+        <v>3.8062424810507713</v>
       </c>
       <c r="Q9" s="0">
-        <v>-2.2191129334936175</v>
+        <v>-2.3686924397529832</v>
       </c>
       <c r="R9" s="0">
-        <v>0.37394967371330057</v>
+        <v>0.72959249559425476</v>
       </c>
       <c r="S9" s="0">
-        <v>2.9997352790346987</v>
+        <v>3.7924356123936453</v>
       </c>
       <c r="T9" s="0">
-        <v>-1.1111311039844112</v>
+        <v>-0.89412491931103744</v>
       </c>
       <c r="U9" s="0">
-        <v>1.0022671165254784</v>
+        <v>1.3518149051396882</v>
       </c>
       <c r="V9" s="0">
-        <v>3.0942244955775258</v>
+        <v>3.3974165958089788</v>
       </c>
       <c r="W9" s="0">
-        <v>-1.6460205568548361</v>
+        <v>-1.9334328876326161</v>
       </c>
       <c r="X9" s="0">
-        <v>0.69438733169778788</v>
+        <v>0.49564589508775203</v>
       </c>
       <c r="Y9" s="0">
-        <v>3.1285132248483638</v>
+        <v>3.2407938550023268</v>
       </c>
       <c r="Z9" s="0">
-        <v>-1.7318595360265814</v>
+        <v>-2.7105701565478544</v>
       </c>
       <c r="AA9" s="0">
-        <v>0.83469355734153139</v>
+        <v>0.58499222134549256</v>
       </c>
       <c r="AB9" s="0">
-        <v>3.5267079323274202</v>
+        <v>3.6204066773702124</v>
       </c>
       <c r="AC9" s="0">
-        <v>-1.16292546797122</v>
+        <v>-1.1299846953924984</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.021400276622209086</v>
+        <v>0.025389155961814278</v>
       </c>
       <c r="AE9" s="0">
-        <v>1.1592897410875422</v>
+        <v>1.1769114485697476</v>
       </c>
       <c r="AF9" s="0">
-        <v>-0.85429916045761212</v>
+        <v>-0.88883208983550743</v>
       </c>
       <c r="AG9" s="0">
-        <v>0.033493822166279656</v>
+        <v>0.0064724132440350602</v>
       </c>
       <c r="AH9" s="0">
-        <v>0.88960658934972836</v>
+        <v>0.94964682179708804</v>
       </c>
       <c r="AI9" s="0">
-        <v>-1.0715867077555652</v>
+        <v>-1.0923918651415798</v>
       </c>
       <c r="AJ9" s="0">
-        <v>0.050468056296126454</v>
+        <v>-0.038225677831768945</v>
       </c>
       <c r="AK9" s="0">
-        <v>1.0776518390918037</v>
+        <v>0.93925417755871132</v>
       </c>
       <c r="AL9" s="0">
-        <v>-1.1729460898175983</v>
+        <v>-1.1687770121117653</v>
       </c>
       <c r="AM9" s="0">
-        <v>-0.0046678994909213605</v>
+        <v>-0.046862357159468633</v>
       </c>
       <c r="AN9" s="0">
-        <v>1.146183807190537</v>
+        <v>1.1803040458632617</v>
       </c>
       <c r="AO9" s="0">
-        <v>-0.86606815869440434</v>
+        <v>-0.94384303530696056</v>
       </c>
       <c r="AP9" s="0">
-        <v>0.071237997297741329</v>
+        <v>-0.042395433658009102</v>
       </c>
       <c r="AQ9" s="0">
-        <v>0.90844211991749702</v>
+        <v>0.83726851397103974</v>
       </c>
       <c r="AR9" s="0">
-        <v>-0.90339677415326947</v>
+        <v>-0.9963676563022168</v>
       </c>
       <c r="AS9" s="0">
-        <v>0.084914541318024353</v>
+        <v>-0.017549002472755097</v>
       </c>
       <c r="AT9" s="0">
-        <v>1.0410562045391778</v>
+        <v>1.0362159784555502</v>
       </c>
       <c r="AU9" s="0">
-        <v>-1.0923873597733764</v>
+        <v>-1.2203228812605906</v>
       </c>
       <c r="AV9" s="0">
-        <v>0.052597046785040985</v>
+        <v>-0.015722548814108301</v>
       </c>
       <c r="AW9" s="0">
-        <v>1.1576608779079591</v>
+        <v>1.2129538094839369</v>
       </c>
       <c r="AX9" s="0">
-        <v>-0.92376214708037396</v>
+        <v>-0.93245120334524789</v>
       </c>
       <c r="AY9" s="0">
-        <v>-0.044214941906250221</v>
+        <v>-0.023229554092785907</v>
       </c>
       <c r="AZ9" s="0">
-        <v>0.85694249687123247</v>
+        <v>0.87131193092570336</v>
       </c>
       <c r="BA9" s="0">
-        <v>-1.0250065946071998</v>
+        <v>-1.0719434038846494</v>
       </c>
       <c r="BB9" s="0">
-        <v>-0.0055435616983975176</v>
+        <v>-0.054015980734127153</v>
       </c>
       <c r="BC9" s="0">
-        <v>1.0116772483296503</v>
+        <v>0.95663587909609271</v>
       </c>
       <c r="BD9" s="0">
         <v>94.319999999999993</v>
@@ -1704,169 +1764,169 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B10" s="0">
-        <v>-1.2644954796792947</v>
+        <v>-0.92061256052623008</v>
       </c>
       <c r="C10" s="0">
-        <v>1.0248569872430879</v>
+        <v>1.3552244358442995</v>
       </c>
       <c r="D10" s="0">
-        <v>3.2733166203016033</v>
+        <v>3.4104751212878046</v>
       </c>
       <c r="E10" s="0">
-        <v>-1.7724036211242282</v>
+        <v>-1.9724723341642072</v>
       </c>
       <c r="F10" s="0">
-        <v>0.6022747776197277</v>
+        <v>0.47022241431394368</v>
       </c>
       <c r="G10" s="0">
-        <v>3.0123498111743743</v>
+        <v>3.2279231024364394</v>
       </c>
       <c r="H10" s="0">
-        <v>-2.5117747697759398</v>
+        <v>-2.939376519717956</v>
       </c>
       <c r="I10" s="0">
-        <v>0.40204911122979847</v>
+        <v>0.29075847656634946</v>
       </c>
       <c r="J10" s="0">
-        <v>3.3029051790990147</v>
+        <v>3.5143975500519056</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.57971480855055546</v>
+        <v>-0.70504543293556199</v>
       </c>
       <c r="L10" s="0">
-        <v>1.5973745872546219</v>
+        <v>1.4304167466792668</v>
       </c>
       <c r="M10" s="0">
-        <v>3.7461298778991723</v>
+        <v>3.5692447971559398</v>
       </c>
       <c r="N10" s="0">
-        <v>-1.2003613722231297</v>
+        <v>-1.2183908246063293</v>
       </c>
       <c r="O10" s="0">
-        <v>1.279491058138311</v>
+        <v>1.1922844955098277</v>
       </c>
       <c r="P10" s="0">
-        <v>3.5858677508011425</v>
+        <v>3.7815139025997553</v>
       </c>
       <c r="Q10" s="0">
-        <v>-2.315395875743806</v>
+        <v>-2.5761312909920582</v>
       </c>
       <c r="R10" s="0">
-        <v>0.49882813849138091</v>
+        <v>0.7375935901055064</v>
       </c>
       <c r="S10" s="0">
-        <v>3.4856090808582589</v>
+        <v>4.0450120972676036</v>
       </c>
       <c r="T10" s="0">
-        <v>-1.2231702751218161</v>
+        <v>-0.97255211766912875</v>
       </c>
       <c r="U10" s="0">
-        <v>0.99183923682834807</v>
+        <v>1.2207935572210931</v>
       </c>
       <c r="V10" s="0">
-        <v>3.0407140999048883</v>
+        <v>3.3665676683764043</v>
       </c>
       <c r="W10" s="0">
-        <v>-1.7288494418206239</v>
+        <v>-1.8898615301067756</v>
       </c>
       <c r="X10" s="0">
-        <v>0.67149434732448654</v>
+        <v>0.59376716070374591</v>
       </c>
       <c r="Y10" s="0">
-        <v>3.1331553456299837</v>
+        <v>3.4360673943355464</v>
       </c>
       <c r="Z10" s="0">
-        <v>-2.0109370297397211</v>
+        <v>-3.0689819584474485</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.73709754434604757</v>
+        <v>0.50267820702635979</v>
       </c>
       <c r="AB10" s="0">
-        <v>3.5742501570638892</v>
+        <v>3.7988443355566957</v>
       </c>
       <c r="AC10" s="0">
-        <v>-1.1148680503758541</v>
+        <v>-1.0755365135496557</v>
       </c>
       <c r="AD10" s="0">
-        <v>-0.026136262928883665</v>
+        <v>0.053630878074281886</v>
       </c>
       <c r="AE10" s="0">
-        <v>1.046887827432629</v>
+        <v>1.1711358952157318</v>
       </c>
       <c r="AF10" s="0">
-        <v>-0.87276619361815078</v>
+        <v>-0.91379408352270364</v>
       </c>
       <c r="AG10" s="0">
-        <v>0.0064825333578689068</v>
+        <v>-0.054251120925429927</v>
       </c>
       <c r="AH10" s="0">
-        <v>0.96886658102021173</v>
+        <v>0.89792225497175249</v>
       </c>
       <c r="AI10" s="0">
-        <v>-0.98361089333263596</v>
+        <v>-1.0857090114546344</v>
       </c>
       <c r="AJ10" s="0">
-        <v>-0.051309655403355012</v>
+        <v>-0.009005793892414099</v>
       </c>
       <c r="AK10" s="0">
-        <v>0.9393060636001993</v>
+        <v>1.0446748798699024</v>
       </c>
       <c r="AL10" s="0">
-        <v>-1.0578520732603551</v>
+        <v>-1.1072365747808175</v>
       </c>
       <c r="AM10" s="0">
-        <v>0.011915188306998241</v>
+        <v>-0.028966434599734442</v>
       </c>
       <c r="AN10" s="0">
-        <v>1.1554835513483532</v>
+        <v>1.1212756512472095</v>
       </c>
       <c r="AO10" s="0">
-        <v>-0.88603364251236549</v>
+        <v>-0.92882380005917953</v>
       </c>
       <c r="AP10" s="0">
-        <v>-0.0012210479764617962</v>
+        <v>-0.047132948399035417</v>
       </c>
       <c r="AQ10" s="0">
-        <v>0.90172483148805915</v>
+        <v>0.88291629164816077</v>
       </c>
       <c r="AR10" s="0">
-        <v>-0.98109848280230016</v>
+        <v>-1.0527993510967848</v>
       </c>
       <c r="AS10" s="0">
-        <v>-0.022467691231663645</v>
+        <v>-0.012361045198651076</v>
       </c>
       <c r="AT10" s="0">
-        <v>1.0352396647480004</v>
+        <v>1.0533050158474979</v>
       </c>
       <c r="AU10" s="0">
-        <v>-1.062391538714567</v>
+        <v>-1.222342113539894</v>
       </c>
       <c r="AV10" s="0">
-        <v>0.044012647728580483</v>
+        <v>-0.027917954506812476</v>
       </c>
       <c r="AW10" s="0">
-        <v>1.111736622744091</v>
+        <v>1.1851127309207341</v>
       </c>
       <c r="AX10" s="0">
-        <v>-0.86077872729076965</v>
+        <v>-0.86157128934058325</v>
       </c>
       <c r="AY10" s="0">
-        <v>0.017456010809703621</v>
+        <v>0.039689225947560559</v>
       </c>
       <c r="AZ10" s="0">
-        <v>0.89397872489201324</v>
+        <v>0.95890041688847105</v>
       </c>
       <c r="BA10" s="0">
-        <v>-1.0203276621948043</v>
+        <v>-1.0756261858104921</v>
       </c>
       <c r="BB10" s="0">
-        <v>0.0076046617532940855</v>
+        <v>0.023240872902751654</v>
       </c>
       <c r="BC10" s="0">
-        <v>1.0682506392926956</v>
+        <v>0.98424941690528456</v>
       </c>
       <c r="BD10" s="0">
         <v>94.319999999999993</v>
@@ -1880,169 +1940,169 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B11" s="0">
-        <v>-1.4832886192754065</v>
+        <v>-0.87668979160901472</v>
       </c>
       <c r="C11" s="0">
-        <v>0.89967940768034971</v>
+        <v>1.3767361626723464</v>
       </c>
       <c r="D11" s="0">
-        <v>3.1658321181321165</v>
+        <v>3.4832705316155139</v>
       </c>
       <c r="E11" s="0">
-        <v>-1.8503929502676137</v>
+        <v>-2.0552959407664515</v>
       </c>
       <c r="F11" s="0">
-        <v>0.6529760123042454</v>
+        <v>0.52181013913816487</v>
       </c>
       <c r="G11" s="0">
-        <v>3.0864280761487293</v>
+        <v>3.2275406071310284</v>
       </c>
       <c r="H11" s="0">
-        <v>-2.7611302748461188</v>
+        <v>-3.1820613388614412</v>
       </c>
       <c r="I11" s="0">
-        <v>0.3321018719841477</v>
+        <v>0.30814411479345727</v>
       </c>
       <c r="J11" s="0">
-        <v>3.3527763981160312</v>
+        <v>3.7723375591534687</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.53228631832470152</v>
+        <v>-0.62031115559757644</v>
       </c>
       <c r="L11" s="0">
-        <v>1.5853328316136572</v>
+        <v>1.4332794378900886</v>
       </c>
       <c r="M11" s="0">
-        <v>3.7345481791235793</v>
+        <v>3.6005968349727882</v>
       </c>
       <c r="N11" s="0">
-        <v>-1.3079963306634323</v>
+        <v>-1.4324431364260959</v>
       </c>
       <c r="O11" s="0">
-        <v>1.1547182664404678</v>
+        <v>1.1574078496478717</v>
       </c>
       <c r="P11" s="0">
-        <v>3.5509358838070906</v>
+        <v>3.8279311479169102</v>
       </c>
       <c r="Q11" s="0">
-        <v>-2.5634272582470778</v>
+        <v>-2.591571598643867</v>
       </c>
       <c r="R11" s="0">
-        <v>0.58724736308643655</v>
+        <v>0.80100475217187717</v>
       </c>
       <c r="S11" s="0">
-        <v>3.9658635072983595</v>
+        <v>4.3244808912108184</v>
       </c>
       <c r="T11" s="0">
-        <v>-1.3657334756357176</v>
+        <v>-0.90567715674258364</v>
       </c>
       <c r="U11" s="0">
-        <v>0.86995655324372612</v>
+        <v>1.221603076895831</v>
       </c>
       <c r="V11" s="0">
-        <v>3.0952540432881048</v>
+        <v>3.4278829105980044</v>
       </c>
       <c r="W11" s="0">
-        <v>-1.8920804353515508</v>
+        <v>-2.0930004113922194</v>
       </c>
       <c r="X11" s="0">
-        <v>0.68372503637287552</v>
+        <v>0.47032003365797181</v>
       </c>
       <c r="Y11" s="0">
-        <v>3.2925832703624729</v>
+        <v>3.4638459589546726</v>
       </c>
       <c r="Z11" s="0">
-        <v>-2.3778210924434671</v>
+        <v>-3.480222909978008</v>
       </c>
       <c r="AA11" s="0">
-        <v>0.63591164040400994</v>
+        <v>0.45828513175630237</v>
       </c>
       <c r="AB11" s="0">
-        <v>3.739173058460258</v>
+        <v>3.8623406445674986</v>
       </c>
       <c r="AC11" s="0">
-        <v>-1.0795418137508754</v>
+        <v>-1.194816099072646</v>
       </c>
       <c r="AD11" s="0">
-        <v>-0.02696848411967475</v>
+        <v>-0.015858207359717616</v>
       </c>
       <c r="AE11" s="0">
-        <v>1.160255041522916</v>
+        <v>1.1591028985294323</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.84373989401516925</v>
+        <v>-0.86448994152951575</v>
       </c>
       <c r="AG11" s="0">
-        <v>0.0048462383088979776</v>
+        <v>0.050760757299351027</v>
       </c>
       <c r="AH11" s="0">
-        <v>0.93748241165021562</v>
+        <v>0.8788743084286158</v>
       </c>
       <c r="AI11" s="0">
-        <v>-0.95020298418810478</v>
+        <v>-1.027033665240773</v>
       </c>
       <c r="AJ11" s="0">
-        <v>-0.006452622095116059</v>
+        <v>-0.00073301845366032306</v>
       </c>
       <c r="AK11" s="0">
-        <v>1.0012673086526012</v>
+        <v>1.0354387111371954</v>
       </c>
       <c r="AL11" s="0">
-        <v>-1.0980378260114203</v>
+        <v>-1.1437095704197349</v>
       </c>
       <c r="AM11" s="0">
-        <v>0.060848414558509659</v>
+        <v>0.079980340144060053</v>
       </c>
       <c r="AN11" s="0">
-        <v>1.2025022366822467</v>
+        <v>1.2114257649855369</v>
       </c>
       <c r="AO11" s="0">
-        <v>-0.87207882771218415</v>
+        <v>-0.87850407189263979</v>
       </c>
       <c r="AP11" s="0">
-        <v>-0.010287548071338276</v>
+        <v>0.0032867438997447995</v>
       </c>
       <c r="AQ11" s="0">
-        <v>0.90427045149021734</v>
+        <v>0.90560189247449541</v>
       </c>
       <c r="AR11" s="0">
-        <v>-1.0395931364022513</v>
+        <v>-1.0698810123160576</v>
       </c>
       <c r="AS11" s="0">
-        <v>0.066613005501276107</v>
+        <v>0.01455827481582074</v>
       </c>
       <c r="AT11" s="0">
-        <v>1.0457007202440534</v>
+        <v>0.97199685959379944</v>
       </c>
       <c r="AU11" s="0">
-        <v>-1.1740292244966939</v>
+        <v>-1.1714014162394522</v>
       </c>
       <c r="AV11" s="0">
-        <v>-0.061673204650839308</v>
+        <v>0.035589381778251231</v>
       </c>
       <c r="AW11" s="0">
-        <v>1.0344336718759446</v>
+        <v>1.1735227051674122</v>
       </c>
       <c r="AX11" s="0">
-        <v>-0.89639043967398258</v>
+        <v>-0.86122324195964639</v>
       </c>
       <c r="AY11" s="0">
-        <v>-0.0084550758364342598</v>
+        <v>-0.030091360181840623</v>
       </c>
       <c r="AZ11" s="0">
-        <v>0.87657116424074866</v>
+        <v>0.94796171716128508</v>
       </c>
       <c r="BA11" s="0">
-        <v>-1.0671755784082204</v>
+        <v>-1.0676993234591636</v>
       </c>
       <c r="BB11" s="0">
-        <v>-0.0061357893041507176</v>
+        <v>-0.029654220037456089</v>
       </c>
       <c r="BC11" s="0">
-        <v>1.0704404225608224</v>
+        <v>0.98995370562945728</v>
       </c>
       <c r="BD11" s="0">
         <v>94.319999999999993</v>
@@ -2059,166 +2119,166 @@
         <v>42644</v>
       </c>
       <c r="B12" s="0">
-        <v>-1.4095919193343556</v>
+        <v>-1.215640824436953</v>
       </c>
       <c r="C12" s="0">
-        <v>0.98182932983782889</v>
+        <v>0.86485434119402005</v>
       </c>
       <c r="D12" s="0">
-        <v>3.1983202600969145</v>
+        <v>3.2022532156749017</v>
       </c>
       <c r="E12" s="0">
-        <v>-1.909596614754288</v>
+        <v>-2.0341307204012837</v>
       </c>
       <c r="F12" s="0">
-        <v>0.58583872178060825</v>
+        <v>0.61356197324647521</v>
       </c>
       <c r="G12" s="0">
-        <v>3.2630391963834651</v>
+        <v>3.4063623761241599</v>
       </c>
       <c r="H12" s="0">
-        <v>-3.1143464092323834</v>
+        <v>-3.0726184805414931</v>
       </c>
       <c r="I12" s="0">
-        <v>0.25714000823906746</v>
+        <v>0.39574384200914453</v>
       </c>
       <c r="J12" s="0">
-        <v>3.5626610360420328</v>
+        <v>3.6850164844118072</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.69036725566882207</v>
+        <v>-0.82071736221515834</v>
       </c>
       <c r="L12" s="0">
-        <v>1.574860309887169</v>
+        <v>1.4335013489186983</v>
       </c>
       <c r="M12" s="0">
-        <v>3.8795478618180979</v>
+        <v>3.7179743854176177</v>
       </c>
       <c r="N12" s="0">
-        <v>-1.4280357667930739</v>
+        <v>-1.4805222923979211</v>
       </c>
       <c r="O12" s="0">
-        <v>1.0921192283638508</v>
+        <v>0.94886771818858784</v>
       </c>
       <c r="P12" s="0">
-        <v>3.6490417859419066</v>
+        <v>3.9176458508893153</v>
       </c>
       <c r="Q12" s="0">
-        <v>-2.6072947166066847</v>
+        <v>-2.8781926008497773</v>
       </c>
       <c r="R12" s="0">
-        <v>0.62199545724807281</v>
+        <v>0.42195113234646547</v>
       </c>
       <c r="S12" s="0">
-        <v>4.3049450998225334</v>
+        <v>4.1205845854716063</v>
       </c>
       <c r="T12" s="0">
-        <v>-1.3302268996090181</v>
+        <v>-1.3243491350705765</v>
       </c>
       <c r="U12" s="0">
-        <v>0.95792835657736108</v>
+        <v>0.91073576867957551</v>
       </c>
       <c r="V12" s="0">
-        <v>3.0490393249304777</v>
+        <v>3.126226180012273</v>
       </c>
       <c r="W12" s="0">
-        <v>-2.0281486612803876</v>
+        <v>-1.9242394099659088</v>
       </c>
       <c r="X12" s="0">
-        <v>0.66073221778660085</v>
+        <v>0.50287756802605399</v>
       </c>
       <c r="Y12" s="0">
-        <v>3.3523753775816978</v>
+        <v>3.3613318766869065</v>
       </c>
       <c r="Z12" s="0">
-        <v>-2.6429749982833188</v>
+        <v>-2.7972594541287532</v>
       </c>
       <c r="AA12" s="0">
-        <v>0.61756128968055457</v>
+        <v>0.48500582753514798</v>
       </c>
       <c r="AB12" s="0">
-        <v>3.8928931771542681</v>
+        <v>3.6601480376796438</v>
       </c>
       <c r="AC12" s="0">
-        <v>-1.0490501027330628</v>
+        <v>-1.0548407911859305</v>
       </c>
       <c r="AD12" s="0">
-        <v>0.021009135724925937</v>
+        <v>0.0059950497082565564</v>
       </c>
       <c r="AE12" s="0">
-        <v>1.0914753066644589</v>
+        <v>1.1263725962794591</v>
       </c>
       <c r="AF12" s="0">
-        <v>-0.86658459598932702</v>
+        <v>-0.87731838011993479</v>
       </c>
       <c r="AG12" s="0">
-        <v>0.0049811692176312192</v>
+        <v>0.010797462736352128</v>
       </c>
       <c r="AH12" s="0">
-        <v>0.85920040326352598</v>
+        <v>0.89274410190887443</v>
       </c>
       <c r="AI12" s="0">
-        <v>-1.0308558326201056</v>
+        <v>-1.005480466856151</v>
       </c>
       <c r="AJ12" s="0">
-        <v>-0.038382965730212534</v>
+        <v>-0.038689147046259684</v>
       </c>
       <c r="AK12" s="0">
-        <v>1.0258455942498323</v>
+        <v>0.97386965317564589</v>
       </c>
       <c r="AL12" s="0">
-        <v>-1.1062282512499801</v>
+        <v>-1.1221016881471124</v>
       </c>
       <c r="AM12" s="0">
-        <v>0.055795296235668868</v>
+        <v>0.049119225767535198</v>
       </c>
       <c r="AN12" s="0">
-        <v>1.1646891507358654</v>
+        <v>1.1295097870373718</v>
       </c>
       <c r="AO12" s="0">
-        <v>-0.89207864548555649</v>
+        <v>-0.88455726977408689</v>
       </c>
       <c r="AP12" s="0">
-        <v>-0.026836411005390845</v>
+        <v>0.035535160089626226</v>
       </c>
       <c r="AQ12" s="0">
-        <v>0.82977845914996518</v>
+        <v>0.92567851948668967</v>
       </c>
       <c r="AR12" s="0">
-        <v>-0.98536573720434728</v>
+        <v>-1.0285134314303155</v>
       </c>
       <c r="AS12" s="0">
-        <v>0.011156408745530699</v>
+        <v>0.017010011909826348</v>
       </c>
       <c r="AT12" s="0">
-        <v>1.0604459137407904</v>
+        <v>1.1219821648412158</v>
       </c>
       <c r="AU12" s="0">
-        <v>-1.1430663685550591</v>
+        <v>-1.1766565657774282</v>
       </c>
       <c r="AV12" s="0">
-        <v>-0.089143914822259612</v>
+        <v>-0.057118410129936806</v>
       </c>
       <c r="AW12" s="0">
-        <v>1.1480272074614317</v>
+        <v>1.0907965079201278</v>
       </c>
       <c r="AX12" s="0">
-        <v>-0.86530538867917084</v>
+        <v>-0.9192758095715694</v>
       </c>
       <c r="AY12" s="0">
-        <v>-0.0050232736876632024</v>
+        <v>-0.018751326909594107</v>
       </c>
       <c r="AZ12" s="0">
-        <v>0.8806340674481592</v>
+        <v>0.86615753499856951</v>
       </c>
       <c r="BA12" s="0">
-        <v>-0.95406081783285157</v>
+        <v>-1.0191086773004008</v>
       </c>
       <c r="BB12" s="0">
-        <v>0.0083771145913002221</v>
+        <v>-0.047571693542004245</v>
       </c>
       <c r="BC12" s="0">
-        <v>1.0625894345882614</v>
+        <v>0.9893071849046523</v>
       </c>
       <c r="BD12" s="0">
         <v>94.319999999999993</v>
